--- a/results_prioritized_layout3_8agents.xlsx
+++ b/results_prioritized_layout3_8agents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woutersouge/Documents/LR Master/AE4422 - Agent Based/AE4422/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A74E05-F1E5-9642-991F-ACF1DA805F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79F6B70-DEF8-2A42-8870-EF97CA659406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="760" windowWidth="28040" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33700" yWindow="-1220" windowWidth="28040" windowHeight="17260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results_10runs" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10845" uniqueCount="3558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10846" uniqueCount="3559">
   <si>
     <t xml:space="preserve"> Prioritized</t>
   </si>
@@ -10713,6 +10713,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 6.880158185958862</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -10720,7 +10723,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -11203,7 +11206,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -11561,8 +11564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13709,7 +13712,7 @@
   <dimension ref="A1:M1001"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23:L23"/>
+      <selection activeCell="G15" sqref="G15:L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13736,7 +13739,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="1" t="str">
-        <f>MID(A2,33,LEN(A2) - 36)</f>
+        <f t="shared" ref="B2:B65" si="0">MID(A2,33,LEN(A2) - 36)</f>
         <v>1</v>
       </c>
       <c r="C2" s="1">
@@ -13775,7 +13778,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="str">
-        <f>MID(A3,33,LEN(A3) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C3" s="1">
@@ -13791,15 +13794,15 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <f>COUNTIF($B:$B,G3)</f>
+        <f t="shared" ref="H3:H12" si="1">COUNTIF($B:$B,G3)</f>
         <v>100</v>
       </c>
       <c r="I3">
-        <f>SUMIF($B:$B,G3,$C:$C)</f>
+        <f t="shared" ref="I3:I12" si="2">SUMIF($B:$B,G3,$C:$C)</f>
         <v>11800</v>
       </c>
       <c r="J3">
-        <f>AVERAGEIF($B:$B,G3,$C:$C)</f>
+        <f t="shared" ref="J3:J12" si="3">AVERAGEIF($B:$B,G3,$C:$C)</f>
         <v>118</v>
       </c>
       <c r="K3">
@@ -13819,7 +13822,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f>MID(A4,33,LEN(A4) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C4" s="1">
@@ -13836,26 +13839,26 @@
         <v>2</v>
       </c>
       <c r="H4">
-        <f>COUNTIF($B:$B,G4)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="I4">
-        <f>SUMIF($B:$B,G4,$C:$C)</f>
+        <f t="shared" si="2"/>
         <v>6500</v>
       </c>
       <c r="J4">
-        <f>AVERAGEIF($B:$B,G4,$C:$C)</f>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L12" si="0">K4^2</f>
+        <f t="shared" ref="L4:L12" si="4">K4^2</f>
         <v>0</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M12" si="1">K4/J4</f>
+        <f t="shared" ref="M4:M12" si="5">K4/J4</f>
         <v>0</v>
       </c>
     </row>
@@ -13864,7 +13867,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="str">
-        <f>MID(A5,33,LEN(A5) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C5" s="1">
@@ -13877,30 +13880,30 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G12" si="2">G4+1</f>
+        <f t="shared" ref="G5:G12" si="6">G4+1</f>
         <v>3</v>
       </c>
       <c r="H5">
-        <f>COUNTIF($B:$B,G5)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="I5">
-        <f>SUMIF($B:$B,G5,$C:$C)</f>
+        <f t="shared" si="2"/>
         <v>11600</v>
       </c>
       <c r="J5">
-        <f>AVERAGEIF($B:$B,G5,$C:$C)</f>
+        <f t="shared" si="3"/>
         <v>116</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13909,7 +13912,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="str">
-        <f>MID(A6,33,LEN(A6) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C6" s="1">
@@ -13922,30 +13925,30 @@
         <v>0</v>
       </c>
       <c r="G6">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="H6">
-        <f>COUNTIF($B:$B,G6)</f>
-        <v>100</v>
-      </c>
-      <c r="I6">
-        <f>SUMIF($B:$B,G6,$C:$C)</f>
         <v>11200</v>
       </c>
       <c r="J6">
-        <f>AVERAGEIF($B:$B,G6,$C:$C)</f>
+        <f t="shared" si="3"/>
         <v>112</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13954,7 +13957,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="str">
-        <f>MID(A7,33,LEN(A7) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C7" s="1">
@@ -13967,30 +13970,30 @@
         <v>0</v>
       </c>
       <c r="G7">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="H7">
-        <f>COUNTIF($B:$B,G7)</f>
-        <v>100</v>
-      </c>
-      <c r="I7">
-        <f>SUMIF($B:$B,G7,$C:$C)</f>
         <v>10400</v>
       </c>
       <c r="J7">
-        <f>AVERAGEIF($B:$B,G7,$C:$C)</f>
+        <f t="shared" si="3"/>
         <v>104</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13999,7 +14002,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="str">
-        <f>MID(A8,33,LEN(A8) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C8" s="1">
@@ -14012,30 +14015,30 @@
         <v>0</v>
       </c>
       <c r="G8">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="H8">
-        <f>COUNTIF($B:$B,G8)</f>
-        <v>100</v>
-      </c>
-      <c r="I8">
-        <f>SUMIF($B:$B,G8,$C:$C)</f>
         <v>11000</v>
       </c>
       <c r="J8">
-        <f>AVERAGEIF($B:$B,G8,$C:$C)</f>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -14044,7 +14047,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="str">
-        <f>MID(A9,33,LEN(A9) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C9" s="1">
@@ -14057,30 +14060,30 @@
         <v>0</v>
       </c>
       <c r="G9">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="H9">
-        <f>COUNTIF($B:$B,G9)</f>
-        <v>100</v>
-      </c>
-      <c r="I9">
-        <f>SUMIF($B:$B,G9,$C:$C)</f>
         <v>8000</v>
       </c>
       <c r="J9">
-        <f>AVERAGEIF($B:$B,G9,$C:$C)</f>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -14089,7 +14092,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="str">
-        <f>MID(A10,33,LEN(A10) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C10" s="1">
@@ -14102,30 +14105,30 @@
         <v>0</v>
       </c>
       <c r="G10">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="H10">
-        <f>COUNTIF($B:$B,G10)</f>
-        <v>100</v>
-      </c>
-      <c r="I10">
-        <f>SUMIF($B:$B,G10,$C:$C)</f>
         <v>7200</v>
       </c>
       <c r="J10">
-        <f>AVERAGEIF($B:$B,G10,$C:$C)</f>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -14134,7 +14137,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="str">
-        <f>MID(A11,33,LEN(A11) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C11" s="1">
@@ -14147,32 +14150,32 @@
         <v>0</v>
       </c>
       <c r="G11">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="H11">
-        <f>COUNTIF($B:$B,G11)</f>
-        <v>100</v>
-      </c>
-      <c r="I11">
-        <f>SUMIF($B:$B,G11,$C:$C)</f>
         <v>11580</v>
       </c>
       <c r="J11">
-        <f>AVERAGEIF($B:$B,G11,$C:$C)</f>
+        <f t="shared" si="3"/>
         <v>115.8</v>
       </c>
-      <c r="K11" t="e">
-        <f>STDEV(B902:B1001)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M11" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="K11">
+        <f>STDEV(C902:C1001)</f>
+        <v>0.98473192783466246</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="4"/>
+        <v>0.96969696969697083</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="5"/>
+        <v>8.5037299467587441E-3</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -14180,7 +14183,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="str">
-        <f>MID(A12,33,LEN(A12) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C12" s="1">
@@ -14193,30 +14196,30 @@
         <v>0</v>
       </c>
       <c r="G12">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H12">
-        <f>COUNTIF($B:$B,G12)</f>
-        <v>100</v>
-      </c>
-      <c r="I12">
-        <f>SUMIF($B:$B,G12,$C:$C)</f>
         <v>14200</v>
       </c>
       <c r="J12">
-        <f>AVERAGEIF($B:$B,G12,$C:$C)</f>
+        <f t="shared" si="3"/>
         <v>142</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -14225,7 +14228,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="str">
-        <f>MID(A13,33,LEN(A13) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C13" s="1">
@@ -14243,7 +14246,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="str">
-        <f>MID(A14,33,LEN(A14) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C14" s="1">
@@ -14279,7 +14282,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="str">
-        <f>MID(A15,33,LEN(A15) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C15" s="1">
@@ -14295,11 +14298,11 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <f>COUNTIF($B:$B,G15)</f>
+        <f t="shared" ref="H15:H24" si="7">COUNTIF($B:$B,G15)</f>
         <v>100</v>
       </c>
       <c r="I15">
-        <f>AVERAGEIF($B:$B,G15,$C:$C)</f>
+        <f t="shared" ref="I15:I24" si="8">AVERAGEIF($B:$B,G15,$C:$C)</f>
         <v>118</v>
       </c>
       <c r="J15">
@@ -14319,7 +14322,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="str">
-        <f>MID(A16,33,LEN(A16) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C16" s="1">
@@ -14336,22 +14339,22 @@
         <v>2</v>
       </c>
       <c r="H16">
-        <f>COUNTIF($B:$B,G16)</f>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="I16">
-        <f>AVERAGEIF($B:$B,G16,$C:$C)</f>
+        <f t="shared" si="8"/>
         <v>65</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <f t="shared" ref="K16:K24" si="3">J16^2</f>
+        <f t="shared" ref="K16:K24" si="9">J16^2</f>
         <v>0</v>
       </c>
       <c r="L16">
-        <f t="shared" ref="L16:L24" si="4">J16/I16</f>
+        <f t="shared" ref="L16:L24" si="10">J16/I16</f>
         <v>0</v>
       </c>
     </row>
@@ -14360,7 +14363,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="str">
-        <f>MID(A17,33,LEN(A17) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C17" s="1">
@@ -14373,26 +14376,26 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <f t="shared" ref="G17:G24" si="5">G16+1</f>
+        <f t="shared" ref="G17:G24" si="11">G16+1</f>
         <v>3</v>
       </c>
       <c r="H17">
-        <f>COUNTIF($B:$B,G17)</f>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="I17">
-        <f>AVERAGEIF($B:$B,G17,$C:$C)</f>
+        <f t="shared" si="8"/>
         <v>116</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -14401,7 +14404,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="str">
-        <f>MID(A18,33,LEN(A18) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C18" s="1">
@@ -14414,26 +14417,26 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="H18">
-        <f>COUNTIF($B:$B,G18)</f>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="I18">
-        <f>AVERAGEIF($B:$B,G18,$C:$C)</f>
+        <f t="shared" si="8"/>
         <v>112</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -14442,7 +14445,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="str">
-        <f>MID(A19,33,LEN(A19) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C19" s="1">
@@ -14455,26 +14458,26 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="H19">
-        <f>COUNTIF($B:$B,G19)</f>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="I19">
-        <f>AVERAGEIF($B:$B,G19,$C:$C)</f>
+        <f t="shared" si="8"/>
         <v>104</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -14483,7 +14486,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="str">
-        <f>MID(A20,33,LEN(A20) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C20" s="1">
@@ -14496,26 +14499,26 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="H20">
-        <f>COUNTIF($B:$B,G20)</f>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="I20">
-        <f>AVERAGEIF($B:$B,G20,$C:$C)</f>
+        <f t="shared" si="8"/>
         <v>110</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -14524,7 +14527,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="1" t="str">
-        <f>MID(A21,33,LEN(A21) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C21" s="1">
@@ -14537,26 +14540,26 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="H21">
-        <f>COUNTIF($B:$B,G21)</f>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="I21">
-        <f>AVERAGEIF($B:$B,G21,$C:$C)</f>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -14565,7 +14568,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="str">
-        <f>MID(A22,33,LEN(A22) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C22" s="1">
@@ -14578,26 +14581,26 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="H22">
-        <f>COUNTIF($B:$B,G22)</f>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="I22">
-        <f>AVERAGEIF($B:$B,G22,$C:$C)</f>
+        <f t="shared" si="8"/>
         <v>72</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -14606,7 +14609,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="1" t="str">
-        <f>MID(A23,33,LEN(A23) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C23" s="1">
@@ -14619,15 +14622,15 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="H23">
-        <f>COUNTIF($B:$B,G23)</f>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="I23">
-        <f>AVERAGEIF($B:$B,G23,$C:$C)</f>
+        <f t="shared" si="8"/>
         <v>115.8</v>
       </c>
       <c r="J23" s="3">
@@ -14635,11 +14638,11 @@
         <v>0.98473192783466246</v>
       </c>
       <c r="K23" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.96969696969697083</v>
       </c>
       <c r="L23" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>8.5037299467587441E-3</v>
       </c>
     </row>
@@ -14648,7 +14651,7 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="str">
-        <f>MID(A24,33,LEN(A24) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C24" s="1">
@@ -14661,26 +14664,26 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="H24">
-        <f>COUNTIF($B:$B,G24)</f>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="I24">
-        <f>AVERAGEIF($B:$B,G24,$C:$C)</f>
+        <f t="shared" si="8"/>
         <v>142</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -14689,7 +14692,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="str">
-        <f>MID(A25,33,LEN(A25) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C25" s="1">
@@ -14707,7 +14710,7 @@
         <v>12</v>
       </c>
       <c r="B26" s="1" t="str">
-        <f>MID(A26,33,LEN(A26) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C26" s="1">
@@ -14725,7 +14728,7 @@
         <v>12</v>
       </c>
       <c r="B27" s="1" t="str">
-        <f>MID(A27,33,LEN(A27) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C27" s="1">
@@ -14743,7 +14746,7 @@
         <v>12</v>
       </c>
       <c r="B28" s="1" t="str">
-        <f>MID(A28,33,LEN(A28) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C28" s="1">
@@ -14761,7 +14764,7 @@
         <v>12</v>
       </c>
       <c r="B29" s="1" t="str">
-        <f>MID(A29,33,LEN(A29) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C29" s="1">
@@ -14779,7 +14782,7 @@
         <v>12</v>
       </c>
       <c r="B30" s="1" t="str">
-        <f>MID(A30,33,LEN(A30) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C30" s="1">
@@ -14797,7 +14800,7 @@
         <v>12</v>
       </c>
       <c r="B31" s="1" t="str">
-        <f>MID(A31,33,LEN(A31) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C31" s="1">
@@ -14815,7 +14818,7 @@
         <v>12</v>
       </c>
       <c r="B32" s="1" t="str">
-        <f>MID(A32,33,LEN(A32) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C32" s="1">
@@ -14833,7 +14836,7 @@
         <v>12</v>
       </c>
       <c r="B33" s="1" t="str">
-        <f>MID(A33,33,LEN(A33) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C33" s="1">
@@ -14851,7 +14854,7 @@
         <v>12</v>
       </c>
       <c r="B34" s="1" t="str">
-        <f>MID(A34,33,LEN(A34) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C34" s="1">
@@ -14869,7 +14872,7 @@
         <v>12</v>
       </c>
       <c r="B35" s="1" t="str">
-        <f>MID(A35,33,LEN(A35) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C35" s="1">
@@ -14887,7 +14890,7 @@
         <v>12</v>
       </c>
       <c r="B36" s="1" t="str">
-        <f>MID(A36,33,LEN(A36) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C36" s="1">
@@ -14905,7 +14908,7 @@
         <v>12</v>
       </c>
       <c r="B37" s="1" t="str">
-        <f>MID(A37,33,LEN(A37) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C37" s="1">
@@ -14923,7 +14926,7 @@
         <v>12</v>
       </c>
       <c r="B38" s="1" t="str">
-        <f>MID(A38,33,LEN(A38) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C38" s="1">
@@ -14941,7 +14944,7 @@
         <v>12</v>
       </c>
       <c r="B39" s="1" t="str">
-        <f>MID(A39,33,LEN(A39) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C39" s="1">
@@ -14959,7 +14962,7 @@
         <v>12</v>
       </c>
       <c r="B40" s="1" t="str">
-        <f>MID(A40,33,LEN(A40) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C40" s="1">
@@ -14977,7 +14980,7 @@
         <v>12</v>
       </c>
       <c r="B41" s="1" t="str">
-        <f>MID(A41,33,LEN(A41) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C41" s="1">
@@ -14995,7 +14998,7 @@
         <v>12</v>
       </c>
       <c r="B42" s="1" t="str">
-        <f>MID(A42,33,LEN(A42) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C42" s="1">
@@ -15013,7 +15016,7 @@
         <v>12</v>
       </c>
       <c r="B43" s="1" t="str">
-        <f>MID(A43,33,LEN(A43) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C43" s="1">
@@ -15031,7 +15034,7 @@
         <v>12</v>
       </c>
       <c r="B44" s="1" t="str">
-        <f>MID(A44,33,LEN(A44) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C44">
@@ -15049,7 +15052,7 @@
         <v>12</v>
       </c>
       <c r="B45" s="1" t="str">
-        <f>MID(A45,33,LEN(A45) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C45">
@@ -15067,7 +15070,7 @@
         <v>12</v>
       </c>
       <c r="B46" s="1" t="str">
-        <f>MID(A46,33,LEN(A46) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C46">
@@ -15085,7 +15088,7 @@
         <v>12</v>
       </c>
       <c r="B47" s="1" t="str">
-        <f>MID(A47,33,LEN(A47) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C47">
@@ -15103,7 +15106,7 @@
         <v>12</v>
       </c>
       <c r="B48" s="1" t="str">
-        <f>MID(A48,33,LEN(A48) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C48">
@@ -15121,7 +15124,7 @@
         <v>12</v>
       </c>
       <c r="B49" s="1" t="str">
-        <f>MID(A49,33,LEN(A49) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C49">
@@ -15139,7 +15142,7 @@
         <v>12</v>
       </c>
       <c r="B50" s="1" t="str">
-        <f>MID(A50,33,LEN(A50) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C50">
@@ -15157,7 +15160,7 @@
         <v>12</v>
       </c>
       <c r="B51" s="1" t="str">
-        <f>MID(A51,33,LEN(A51) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C51">
@@ -15175,7 +15178,7 @@
         <v>12</v>
       </c>
       <c r="B52" s="1" t="str">
-        <f>MID(A52,33,LEN(A52) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C52">
@@ -15193,7 +15196,7 @@
         <v>12</v>
       </c>
       <c r="B53" s="1" t="str">
-        <f>MID(A53,33,LEN(A53) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C53">
@@ -15211,7 +15214,7 @@
         <v>12</v>
       </c>
       <c r="B54" s="1" t="str">
-        <f>MID(A54,33,LEN(A54) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C54">
@@ -15229,7 +15232,7 @@
         <v>12</v>
       </c>
       <c r="B55" s="1" t="str">
-        <f>MID(A55,33,LEN(A55) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C55">
@@ -15247,7 +15250,7 @@
         <v>12</v>
       </c>
       <c r="B56" s="1" t="str">
-        <f>MID(A56,33,LEN(A56) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C56">
@@ -15265,7 +15268,7 @@
         <v>12</v>
       </c>
       <c r="B57" s="1" t="str">
-        <f>MID(A57,33,LEN(A57) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C57">
@@ -15283,7 +15286,7 @@
         <v>12</v>
       </c>
       <c r="B58" s="1" t="str">
-        <f>MID(A58,33,LEN(A58) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C58">
@@ -15301,7 +15304,7 @@
         <v>12</v>
       </c>
       <c r="B59" s="1" t="str">
-        <f>MID(A59,33,LEN(A59) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C59">
@@ -15319,7 +15322,7 @@
         <v>12</v>
       </c>
       <c r="B60" s="1" t="str">
-        <f>MID(A60,33,LEN(A60) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C60">
@@ -15337,7 +15340,7 @@
         <v>12</v>
       </c>
       <c r="B61" s="1" t="str">
-        <f>MID(A61,33,LEN(A61) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C61">
@@ -15355,7 +15358,7 @@
         <v>12</v>
       </c>
       <c r="B62" s="1" t="str">
-        <f>MID(A62,33,LEN(A62) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C62">
@@ -15373,7 +15376,7 @@
         <v>12</v>
       </c>
       <c r="B63" s="1" t="str">
-        <f>MID(A63,33,LEN(A63) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C63">
@@ -15391,7 +15394,7 @@
         <v>12</v>
       </c>
       <c r="B64" s="1" t="str">
-        <f>MID(A64,33,LEN(A64) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C64">
@@ -15409,7 +15412,7 @@
         <v>12</v>
       </c>
       <c r="B65" s="1" t="str">
-        <f>MID(A65,33,LEN(A65) - 36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C65">
@@ -15427,7 +15430,7 @@
         <v>12</v>
       </c>
       <c r="B66" s="1" t="str">
-        <f>MID(A66,33,LEN(A66) - 36)</f>
+        <f t="shared" ref="B66:B129" si="12">MID(A66,33,LEN(A66) - 36)</f>
         <v>1</v>
       </c>
       <c r="C66">
@@ -15445,7 +15448,7 @@
         <v>12</v>
       </c>
       <c r="B67" s="1" t="str">
-        <f>MID(A67,33,LEN(A67) - 36)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C67">
@@ -15463,7 +15466,7 @@
         <v>12</v>
       </c>
       <c r="B68" s="1" t="str">
-        <f>MID(A68,33,LEN(A68) - 36)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C68">
@@ -15481,7 +15484,7 @@
         <v>12</v>
       </c>
       <c r="B69" s="1" t="str">
-        <f>MID(A69,33,LEN(A69) - 36)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C69">
@@ -15499,7 +15502,7 @@
         <v>12</v>
       </c>
       <c r="B70" s="1" t="str">
-        <f>MID(A70,33,LEN(A70) - 36)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C70">
@@ -15517,7 +15520,7 @@
         <v>12</v>
       </c>
       <c r="B71" s="1" t="str">
-        <f>MID(A71,33,LEN(A71) - 36)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C71">
@@ -15535,7 +15538,7 @@
         <v>12</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f>MID(A72,33,LEN(A72) - 36)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C72">
@@ -15553,7 +15556,7 @@
         <v>12</v>
       </c>
       <c r="B73" s="1" t="str">
-        <f>MID(A73,33,LEN(A73) - 36)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C73">
@@ -15571,7 +15574,7 @@
         <v>12</v>
       </c>
       <c r="B74" s="1" t="str">
-        <f>MID(A74,33,LEN(A74) - 36)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C74">
@@ -15589,7 +15592,7 @@
         <v>12</v>
       </c>
       <c r="B75" s="1" t="str">
-        <f>MID(A75,33,LEN(A75) - 36)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C75">
@@ -15607,7 +15610,7 @@
         <v>12</v>
       </c>
       <c r="B76" s="1" t="str">
-        <f>MID(A76,33,LEN(A76) - 36)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C76">
@@ -15625,7 +15628,7 @@
         <v>12</v>
       </c>
       <c r="B77" s="1" t="str">
-        <f>MID(A77,33,LEN(A77) - 36)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C77">
@@ -15643,7 +15646,7 @@
         <v>12</v>
       </c>
       <c r="B78" s="1" t="str">
-        <f>MID(A78,33,LEN(A78) - 36)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C78">
@@ -15661,7 +15664,7 @@
         <v>12</v>
       </c>
       <c r="B79" s="1" t="str">
-        <f>MID(A79,33,LEN(A79) - 36)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C79">
@@ -15679,7 +15682,7 @@
         <v>12</v>
       </c>
       <c r="B80" s="1" t="str">
-        <f>MID(A80,33,LEN(A80) - 36)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C80">
@@ -15697,7 +15700,7 @@
         <v>12</v>
       </c>
       <c r="B81" s="1" t="str">
-        <f>MID(A81,33,LEN(A81) - 36)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C81">
@@ -15715,7 +15718,7 @@
         <v>12</v>
       </c>
       <c r="B82" s="1" t="str">
-        <f>MID(A82,33,LEN(A82) - 36)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C82">
@@ -15733,7 +15736,7 @@
         <v>12</v>
       </c>
       <c r="B83" s="1" t="str">
-        <f>MID(A83,33,LEN(A83) - 36)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C83">
@@ -15751,7 +15754,7 @@
         <v>12</v>
       </c>
       <c r="B84" s="1" t="str">
-        <f>MID(A84,33,LEN(A84) - 36)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C84">
@@ -15769,7 +15772,7 @@
         <v>12</v>
       </c>
       <c r="B85" s="1" t="str">
-        <f>MID(A85,33,LEN(A85) - 36)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C85">
@@ -15787,7 +15790,7 @@
         <v>12</v>
       </c>
       <c r="B86" s="1" t="str">
-        <f>MID(A86,33,LEN(A86) - 36)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C86">
@@ -15805,7 +15808,7 @@
         <v>12</v>
       </c>
       <c r="B87" s="1" t="str">
-        <f>MID(A87,33,LEN(A87) - 36)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C87">
@@ -15823,7 +15826,7 @@
         <v>12</v>
       </c>
       <c r="B88" s="1" t="str">
-        <f>MID(A88,33,LEN(A88) - 36)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C88">
@@ -15841,7 +15844,7 @@
         <v>12</v>
       </c>
       <c r="B89" s="1" t="str">
-        <f>MID(A89,33,LEN(A89) - 36)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C89">
@@ -15859,7 +15862,7 @@
         <v>12</v>
       </c>
       <c r="B90" s="1" t="str">
-        <f>MID(A90,33,LEN(A90) - 36)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C90">
@@ -15877,7 +15880,7 @@
         <v>12</v>
       </c>
       <c r="B91" s="1" t="str">
-        <f>MID(A91,33,LEN(A91) - 36)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C91">
@@ -15895,7 +15898,7 @@
         <v>12</v>
       </c>
       <c r="B92" s="1" t="str">
-        <f>MID(A92,33,LEN(A92) - 36)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C92">
@@ -15913,7 +15916,7 @@
         <v>12</v>
       </c>
       <c r="B93" s="1" t="str">
-        <f>MID(A93,33,LEN(A93) - 36)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C93">
@@ -15931,7 +15934,7 @@
         <v>12</v>
       </c>
       <c r="B94" s="1" t="str">
-        <f>MID(A94,33,LEN(A94) - 36)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C94">
@@ -15949,7 +15952,7 @@
         <v>12</v>
       </c>
       <c r="B95" s="1" t="str">
-        <f>MID(A95,33,LEN(A95) - 36)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C95">
@@ -15967,7 +15970,7 @@
         <v>12</v>
       </c>
       <c r="B96" s="1" t="str">
-        <f>MID(A96,33,LEN(A96) - 36)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C96">
@@ -15985,7 +15988,7 @@
         <v>12</v>
       </c>
       <c r="B97" s="1" t="str">
-        <f>MID(A97,33,LEN(A97) - 36)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C97">
@@ -16003,7 +16006,7 @@
         <v>12</v>
       </c>
       <c r="B98" s="1" t="str">
-        <f>MID(A98,33,LEN(A98) - 36)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C98">
@@ -16021,7 +16024,7 @@
         <v>12</v>
       </c>
       <c r="B99" s="1" t="str">
-        <f>MID(A99,33,LEN(A99) - 36)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C99">
@@ -16039,7 +16042,7 @@
         <v>12</v>
       </c>
       <c r="B100" s="1" t="str">
-        <f>MID(A100,33,LEN(A100) - 36)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C100">
@@ -16057,7 +16060,7 @@
         <v>12</v>
       </c>
       <c r="B101" s="1" t="str">
-        <f>MID(A101,33,LEN(A101) - 36)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C101">
@@ -16075,7 +16078,7 @@
         <v>13</v>
       </c>
       <c r="B102" s="1" t="str">
-        <f>MID(A102,33,LEN(A102) - 36)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="C102" s="1">
@@ -16093,7 +16096,7 @@
         <v>13</v>
       </c>
       <c r="B103" s="1" t="str">
-        <f>MID(A103,33,LEN(A103) - 36)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="C103" s="1">
@@ -16111,7 +16114,7 @@
         <v>13</v>
       </c>
       <c r="B104" s="1" t="str">
-        <f>MID(A104,33,LEN(A104) - 36)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="C104" s="1">
@@ -16129,7 +16132,7 @@
         <v>13</v>
       </c>
       <c r="B105" s="1" t="str">
-        <f>MID(A105,33,LEN(A105) - 36)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="C105" s="1">
@@ -16147,7 +16150,7 @@
         <v>13</v>
       </c>
       <c r="B106" s="1" t="str">
-        <f>MID(A106,33,LEN(A106) - 36)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="C106" s="1">
@@ -16165,7 +16168,7 @@
         <v>13</v>
       </c>
       <c r="B107" s="1" t="str">
-        <f>MID(A107,33,LEN(A107) - 36)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="C107" s="1">
@@ -16183,7 +16186,7 @@
         <v>13</v>
       </c>
       <c r="B108" s="1" t="str">
-        <f>MID(A108,33,LEN(A108) - 36)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="C108" s="1">
@@ -16201,7 +16204,7 @@
         <v>13</v>
       </c>
       <c r="B109" s="1" t="str">
-        <f>MID(A109,33,LEN(A109) - 36)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="C109" s="1">
@@ -16219,7 +16222,7 @@
         <v>13</v>
       </c>
       <c r="B110" s="1" t="str">
-        <f>MID(A110,33,LEN(A110) - 36)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="C110" s="1">
@@ -16237,7 +16240,7 @@
         <v>13</v>
       </c>
       <c r="B111" s="1" t="str">
-        <f>MID(A111,33,LEN(A111) - 36)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="C111" s="1">
@@ -16255,7 +16258,7 @@
         <v>13</v>
       </c>
       <c r="B112" s="1" t="str">
-        <f>MID(A112,33,LEN(A112) - 36)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="C112" s="1">
@@ -16273,7 +16276,7 @@
         <v>13</v>
       </c>
       <c r="B113" s="1" t="str">
-        <f>MID(A113,33,LEN(A113) - 36)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="C113" s="1">
@@ -16291,7 +16294,7 @@
         <v>13</v>
       </c>
       <c r="B114" s="1" t="str">
-        <f>MID(A114,33,LEN(A114) - 36)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="C114" s="1">
@@ -16309,7 +16312,7 @@
         <v>13</v>
       </c>
       <c r="B115" s="1" t="str">
-        <f>MID(A115,33,LEN(A115) - 36)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="C115" s="1">
@@ -16327,7 +16330,7 @@
         <v>13</v>
       </c>
       <c r="B116" s="1" t="str">
-        <f>MID(A116,33,LEN(A116) - 36)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="C116" s="1">
@@ -16345,7 +16348,7 @@
         <v>13</v>
       </c>
       <c r="B117" s="1" t="str">
-        <f>MID(A117,33,LEN(A117) - 36)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="C117" s="1">
@@ -16363,7 +16366,7 @@
         <v>13</v>
       </c>
       <c r="B118" s="1" t="str">
-        <f>MID(A118,33,LEN(A118) - 36)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="C118" s="1">
@@ -16381,7 +16384,7 @@
         <v>13</v>
       </c>
       <c r="B119" s="1" t="str">
-        <f>MID(A119,33,LEN(A119) - 36)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="C119" s="1">
@@ -16399,7 +16402,7 @@
         <v>13</v>
       </c>
       <c r="B120" s="1" t="str">
-        <f>MID(A120,33,LEN(A120) - 36)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="C120" s="1">
@@ -16417,7 +16420,7 @@
         <v>13</v>
       </c>
       <c r="B121" s="1" t="str">
-        <f>MID(A121,33,LEN(A121) - 36)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="C121" s="1">
@@ -16435,7 +16438,7 @@
         <v>13</v>
       </c>
       <c r="B122" s="1" t="str">
-        <f>MID(A122,33,LEN(A122) - 36)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="C122" s="1">
@@ -16453,7 +16456,7 @@
         <v>13</v>
       </c>
       <c r="B123" s="1" t="str">
-        <f>MID(A123,33,LEN(A123) - 36)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="C123" s="1">
@@ -16471,7 +16474,7 @@
         <v>13</v>
       </c>
       <c r="B124" s="1" t="str">
-        <f>MID(A124,33,LEN(A124) - 36)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="C124" s="1">
@@ -16489,7 +16492,7 @@
         <v>13</v>
       </c>
       <c r="B125" s="1" t="str">
-        <f>MID(A125,33,LEN(A125) - 36)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="C125" s="1">
@@ -16507,7 +16510,7 @@
         <v>13</v>
       </c>
       <c r="B126" s="1" t="str">
-        <f>MID(A126,33,LEN(A126) - 36)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="C126" s="1">
@@ -16525,7 +16528,7 @@
         <v>13</v>
       </c>
       <c r="B127" s="1" t="str">
-        <f>MID(A127,33,LEN(A127) - 36)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="C127" s="1">
@@ -16543,7 +16546,7 @@
         <v>13</v>
       </c>
       <c r="B128" s="1" t="str">
-        <f>MID(A128,33,LEN(A128) - 36)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="C128" s="1">
@@ -16561,7 +16564,7 @@
         <v>13</v>
       </c>
       <c r="B129" s="1" t="str">
-        <f>MID(A129,33,LEN(A129) - 36)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="C129" s="1">
@@ -16579,7 +16582,7 @@
         <v>13</v>
       </c>
       <c r="B130" s="1" t="str">
-        <f>MID(A130,33,LEN(A130) - 36)</f>
+        <f t="shared" ref="B130:B193" si="13">MID(A130,33,LEN(A130) - 36)</f>
         <v>10</v>
       </c>
       <c r="C130" s="1">
@@ -16597,7 +16600,7 @@
         <v>13</v>
       </c>
       <c r="B131" s="1" t="str">
-        <f>MID(A131,33,LEN(A131) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C131" s="1">
@@ -16615,7 +16618,7 @@
         <v>13</v>
       </c>
       <c r="B132" s="1" t="str">
-        <f>MID(A132,33,LEN(A132) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C132" s="1">
@@ -16633,7 +16636,7 @@
         <v>13</v>
       </c>
       <c r="B133" s="1" t="str">
-        <f>MID(A133,33,LEN(A133) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C133" s="1">
@@ -16651,7 +16654,7 @@
         <v>13</v>
       </c>
       <c r="B134" s="1" t="str">
-        <f>MID(A134,33,LEN(A134) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C134" s="1">
@@ -16669,7 +16672,7 @@
         <v>13</v>
       </c>
       <c r="B135" s="1" t="str">
-        <f>MID(A135,33,LEN(A135) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C135" s="1">
@@ -16687,7 +16690,7 @@
         <v>13</v>
       </c>
       <c r="B136" s="1" t="str">
-        <f>MID(A136,33,LEN(A136) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C136" s="1">
@@ -16705,7 +16708,7 @@
         <v>13</v>
       </c>
       <c r="B137" s="1" t="str">
-        <f>MID(A137,33,LEN(A137) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C137" s="1">
@@ -16723,7 +16726,7 @@
         <v>13</v>
       </c>
       <c r="B138" s="1" t="str">
-        <f>MID(A138,33,LEN(A138) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C138" s="1">
@@ -16741,7 +16744,7 @@
         <v>13</v>
       </c>
       <c r="B139" s="1" t="str">
-        <f>MID(A139,33,LEN(A139) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C139" s="1">
@@ -16759,7 +16762,7 @@
         <v>13</v>
       </c>
       <c r="B140" s="1" t="str">
-        <f>MID(A140,33,LEN(A140) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C140" s="1">
@@ -16777,7 +16780,7 @@
         <v>13</v>
       </c>
       <c r="B141" s="1" t="str">
-        <f>MID(A141,33,LEN(A141) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C141" s="1">
@@ -16795,7 +16798,7 @@
         <v>13</v>
       </c>
       <c r="B142" s="1" t="str">
-        <f>MID(A142,33,LEN(A142) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C142" s="1">
@@ -16813,7 +16816,7 @@
         <v>13</v>
       </c>
       <c r="B143" s="1" t="str">
-        <f>MID(A143,33,LEN(A143) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C143" s="1">
@@ -16831,7 +16834,7 @@
         <v>13</v>
       </c>
       <c r="B144" s="1" t="str">
-        <f>MID(A144,33,LEN(A144) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C144">
@@ -16849,7 +16852,7 @@
         <v>13</v>
       </c>
       <c r="B145" s="1" t="str">
-        <f>MID(A145,33,LEN(A145) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C145">
@@ -16867,7 +16870,7 @@
         <v>13</v>
       </c>
       <c r="B146" s="1" t="str">
-        <f>MID(A146,33,LEN(A146) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C146">
@@ -16885,7 +16888,7 @@
         <v>13</v>
       </c>
       <c r="B147" s="1" t="str">
-        <f>MID(A147,33,LEN(A147) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C147">
@@ -16903,7 +16906,7 @@
         <v>13</v>
       </c>
       <c r="B148" s="1" t="str">
-        <f>MID(A148,33,LEN(A148) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C148">
@@ -16921,7 +16924,7 @@
         <v>13</v>
       </c>
       <c r="B149" s="1" t="str">
-        <f>MID(A149,33,LEN(A149) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C149">
@@ -16939,7 +16942,7 @@
         <v>13</v>
       </c>
       <c r="B150" s="1" t="str">
-        <f>MID(A150,33,LEN(A150) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C150">
@@ -16957,7 +16960,7 @@
         <v>13</v>
       </c>
       <c r="B151" s="1" t="str">
-        <f>MID(A151,33,LEN(A151) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C151">
@@ -16975,7 +16978,7 @@
         <v>13</v>
       </c>
       <c r="B152" s="1" t="str">
-        <f>MID(A152,33,LEN(A152) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C152">
@@ -16993,7 +16996,7 @@
         <v>13</v>
       </c>
       <c r="B153" s="1" t="str">
-        <f>MID(A153,33,LEN(A153) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C153">
@@ -17011,7 +17014,7 @@
         <v>13</v>
       </c>
       <c r="B154" s="1" t="str">
-        <f>MID(A154,33,LEN(A154) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C154">
@@ -17029,7 +17032,7 @@
         <v>13</v>
       </c>
       <c r="B155" s="1" t="str">
-        <f>MID(A155,33,LEN(A155) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C155">
@@ -17047,7 +17050,7 @@
         <v>13</v>
       </c>
       <c r="B156" s="1" t="str">
-        <f>MID(A156,33,LEN(A156) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C156">
@@ -17065,7 +17068,7 @@
         <v>13</v>
       </c>
       <c r="B157" s="1" t="str">
-        <f>MID(A157,33,LEN(A157) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C157">
@@ -17083,7 +17086,7 @@
         <v>13</v>
       </c>
       <c r="B158" s="1" t="str">
-        <f>MID(A158,33,LEN(A158) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C158">
@@ -17101,7 +17104,7 @@
         <v>13</v>
       </c>
       <c r="B159" s="1" t="str">
-        <f>MID(A159,33,LEN(A159) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C159">
@@ -17119,7 +17122,7 @@
         <v>13</v>
       </c>
       <c r="B160" s="1" t="str">
-        <f>MID(A160,33,LEN(A160) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C160">
@@ -17137,7 +17140,7 @@
         <v>13</v>
       </c>
       <c r="B161" s="1" t="str">
-        <f>MID(A161,33,LEN(A161) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C161">
@@ -17155,7 +17158,7 @@
         <v>13</v>
       </c>
       <c r="B162" s="1" t="str">
-        <f>MID(A162,33,LEN(A162) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C162">
@@ -17173,7 +17176,7 @@
         <v>13</v>
       </c>
       <c r="B163" s="1" t="str">
-        <f>MID(A163,33,LEN(A163) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C163">
@@ -17191,7 +17194,7 @@
         <v>13</v>
       </c>
       <c r="B164" s="1" t="str">
-        <f>MID(A164,33,LEN(A164) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C164">
@@ -17209,7 +17212,7 @@
         <v>13</v>
       </c>
       <c r="B165" s="1" t="str">
-        <f>MID(A165,33,LEN(A165) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C165">
@@ -17227,7 +17230,7 @@
         <v>13</v>
       </c>
       <c r="B166" s="1" t="str">
-        <f>MID(A166,33,LEN(A166) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C166">
@@ -17245,7 +17248,7 @@
         <v>13</v>
       </c>
       <c r="B167" s="1" t="str">
-        <f>MID(A167,33,LEN(A167) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C167">
@@ -17263,7 +17266,7 @@
         <v>13</v>
       </c>
       <c r="B168" s="1" t="str">
-        <f>MID(A168,33,LEN(A168) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C168">
@@ -17281,7 +17284,7 @@
         <v>13</v>
       </c>
       <c r="B169" s="1" t="str">
-        <f>MID(A169,33,LEN(A169) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C169">
@@ -17299,7 +17302,7 @@
         <v>13</v>
       </c>
       <c r="B170" s="1" t="str">
-        <f>MID(A170,33,LEN(A170) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C170">
@@ -17317,7 +17320,7 @@
         <v>13</v>
       </c>
       <c r="B171" s="1" t="str">
-        <f>MID(A171,33,LEN(A171) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C171">
@@ -17335,7 +17338,7 @@
         <v>13</v>
       </c>
       <c r="B172" s="1" t="str">
-        <f>MID(A172,33,LEN(A172) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C172">
@@ -17353,7 +17356,7 @@
         <v>13</v>
       </c>
       <c r="B173" s="1" t="str">
-        <f>MID(A173,33,LEN(A173) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C173">
@@ -17371,7 +17374,7 @@
         <v>13</v>
       </c>
       <c r="B174" s="1" t="str">
-        <f>MID(A174,33,LEN(A174) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C174">
@@ -17389,7 +17392,7 @@
         <v>13</v>
       </c>
       <c r="B175" s="1" t="str">
-        <f>MID(A175,33,LEN(A175) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C175">
@@ -17407,7 +17410,7 @@
         <v>13</v>
       </c>
       <c r="B176" s="1" t="str">
-        <f>MID(A176,33,LEN(A176) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C176">
@@ -17425,7 +17428,7 @@
         <v>13</v>
       </c>
       <c r="B177" s="1" t="str">
-        <f>MID(A177,33,LEN(A177) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C177">
@@ -17443,7 +17446,7 @@
         <v>13</v>
       </c>
       <c r="B178" s="1" t="str">
-        <f>MID(A178,33,LEN(A178) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C178">
@@ -17461,7 +17464,7 @@
         <v>13</v>
       </c>
       <c r="B179" s="1" t="str">
-        <f>MID(A179,33,LEN(A179) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C179">
@@ -17479,7 +17482,7 @@
         <v>13</v>
       </c>
       <c r="B180" s="1" t="str">
-        <f>MID(A180,33,LEN(A180) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C180">
@@ -17497,7 +17500,7 @@
         <v>13</v>
       </c>
       <c r="B181" s="1" t="str">
-        <f>MID(A181,33,LEN(A181) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C181">
@@ -17515,7 +17518,7 @@
         <v>13</v>
       </c>
       <c r="B182" s="1" t="str">
-        <f>MID(A182,33,LEN(A182) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C182">
@@ -17533,7 +17536,7 @@
         <v>13</v>
       </c>
       <c r="B183" s="1" t="str">
-        <f>MID(A183,33,LEN(A183) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C183">
@@ -17551,7 +17554,7 @@
         <v>13</v>
       </c>
       <c r="B184" s="1" t="str">
-        <f>MID(A184,33,LEN(A184) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C184">
@@ -17569,7 +17572,7 @@
         <v>13</v>
       </c>
       <c r="B185" s="1" t="str">
-        <f>MID(A185,33,LEN(A185) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C185">
@@ -17587,7 +17590,7 @@
         <v>13</v>
       </c>
       <c r="B186" s="1" t="str">
-        <f>MID(A186,33,LEN(A186) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C186">
@@ -17605,7 +17608,7 @@
         <v>13</v>
       </c>
       <c r="B187" s="1" t="str">
-        <f>MID(A187,33,LEN(A187) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C187">
@@ -17623,7 +17626,7 @@
         <v>13</v>
       </c>
       <c r="B188" s="1" t="str">
-        <f>MID(A188,33,LEN(A188) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C188">
@@ -17641,7 +17644,7 @@
         <v>13</v>
       </c>
       <c r="B189" s="1" t="str">
-        <f>MID(A189,33,LEN(A189) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C189">
@@ -17659,7 +17662,7 @@
         <v>13</v>
       </c>
       <c r="B190" s="1" t="str">
-        <f>MID(A190,33,LEN(A190) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C190">
@@ -17677,7 +17680,7 @@
         <v>13</v>
       </c>
       <c r="B191" s="1" t="str">
-        <f>MID(A191,33,LEN(A191) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C191">
@@ -17695,7 +17698,7 @@
         <v>13</v>
       </c>
       <c r="B192" s="1" t="str">
-        <f>MID(A192,33,LEN(A192) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C192">
@@ -17713,7 +17716,7 @@
         <v>13</v>
       </c>
       <c r="B193" s="1" t="str">
-        <f>MID(A193,33,LEN(A193) - 36)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="C193">
@@ -17731,7 +17734,7 @@
         <v>13</v>
       </c>
       <c r="B194" s="1" t="str">
-        <f>MID(A194,33,LEN(A194) - 36)</f>
+        <f t="shared" ref="B194:B257" si="14">MID(A194,33,LEN(A194) - 36)</f>
         <v>10</v>
       </c>
       <c r="C194">
@@ -17749,7 +17752,7 @@
         <v>13</v>
       </c>
       <c r="B195" s="1" t="str">
-        <f>MID(A195,33,LEN(A195) - 36)</f>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="C195">
@@ -17767,7 +17770,7 @@
         <v>13</v>
       </c>
       <c r="B196" s="1" t="str">
-        <f>MID(A196,33,LEN(A196) - 36)</f>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="C196">
@@ -17785,7 +17788,7 @@
         <v>13</v>
       </c>
       <c r="B197" s="1" t="str">
-        <f>MID(A197,33,LEN(A197) - 36)</f>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="C197">
@@ -17803,7 +17806,7 @@
         <v>13</v>
       </c>
       <c r="B198" s="1" t="str">
-        <f>MID(A198,33,LEN(A198) - 36)</f>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="C198">
@@ -17821,7 +17824,7 @@
         <v>13</v>
       </c>
       <c r="B199" s="1" t="str">
-        <f>MID(A199,33,LEN(A199) - 36)</f>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="C199">
@@ -17839,7 +17842,7 @@
         <v>13</v>
       </c>
       <c r="B200" s="1" t="str">
-        <f>MID(A200,33,LEN(A200) - 36)</f>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="C200">
@@ -17857,7 +17860,7 @@
         <v>13</v>
       </c>
       <c r="B201" s="1" t="str">
-        <f>MID(A201,33,LEN(A201) - 36)</f>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="C201">
@@ -17875,7 +17878,7 @@
         <v>14</v>
       </c>
       <c r="B202" s="1" t="str">
-        <f>MID(A202,33,LEN(A202) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C202" s="1">
@@ -17893,7 +17896,7 @@
         <v>14</v>
       </c>
       <c r="B203" s="1" t="str">
-        <f>MID(A203,33,LEN(A203) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C203" s="1">
@@ -17911,7 +17914,7 @@
         <v>14</v>
       </c>
       <c r="B204" s="1" t="str">
-        <f>MID(A204,33,LEN(A204) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C204" s="1">
@@ -17929,7 +17932,7 @@
         <v>14</v>
       </c>
       <c r="B205" s="1" t="str">
-        <f>MID(A205,33,LEN(A205) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C205" s="1">
@@ -17947,7 +17950,7 @@
         <v>14</v>
       </c>
       <c r="B206" s="1" t="str">
-        <f>MID(A206,33,LEN(A206) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C206" s="1">
@@ -17965,7 +17968,7 @@
         <v>14</v>
       </c>
       <c r="B207" s="1" t="str">
-        <f>MID(A207,33,LEN(A207) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C207" s="1">
@@ -17983,7 +17986,7 @@
         <v>14</v>
       </c>
       <c r="B208" s="1" t="str">
-        <f>MID(A208,33,LEN(A208) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C208" s="1">
@@ -18001,7 +18004,7 @@
         <v>14</v>
       </c>
       <c r="B209" s="1" t="str">
-        <f>MID(A209,33,LEN(A209) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C209" s="1">
@@ -18019,7 +18022,7 @@
         <v>14</v>
       </c>
       <c r="B210" s="1" t="str">
-        <f>MID(A210,33,LEN(A210) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C210" s="1">
@@ -18037,7 +18040,7 @@
         <v>14</v>
       </c>
       <c r="B211" s="1" t="str">
-        <f>MID(A211,33,LEN(A211) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C211" s="1">
@@ -18055,7 +18058,7 @@
         <v>14</v>
       </c>
       <c r="B212" s="1" t="str">
-        <f>MID(A212,33,LEN(A212) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C212" s="1">
@@ -18073,7 +18076,7 @@
         <v>14</v>
       </c>
       <c r="B213" s="1" t="str">
-        <f>MID(A213,33,LEN(A213) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C213" s="1">
@@ -18091,7 +18094,7 @@
         <v>14</v>
       </c>
       <c r="B214" s="1" t="str">
-        <f>MID(A214,33,LEN(A214) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C214" s="1">
@@ -18109,7 +18112,7 @@
         <v>14</v>
       </c>
       <c r="B215" s="1" t="str">
-        <f>MID(A215,33,LEN(A215) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C215" s="1">
@@ -18127,7 +18130,7 @@
         <v>14</v>
       </c>
       <c r="B216" s="1" t="str">
-        <f>MID(A216,33,LEN(A216) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C216" s="1">
@@ -18145,7 +18148,7 @@
         <v>14</v>
       </c>
       <c r="B217" s="1" t="str">
-        <f>MID(A217,33,LEN(A217) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C217" s="1">
@@ -18163,7 +18166,7 @@
         <v>14</v>
       </c>
       <c r="B218" s="1" t="str">
-        <f>MID(A218,33,LEN(A218) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C218" s="1">
@@ -18181,7 +18184,7 @@
         <v>14</v>
       </c>
       <c r="B219" s="1" t="str">
-        <f>MID(A219,33,LEN(A219) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C219" s="1">
@@ -18199,7 +18202,7 @@
         <v>14</v>
       </c>
       <c r="B220" s="1" t="str">
-        <f>MID(A220,33,LEN(A220) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C220" s="1">
@@ -18217,7 +18220,7 @@
         <v>14</v>
       </c>
       <c r="B221" s="1" t="str">
-        <f>MID(A221,33,LEN(A221) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C221" s="1">
@@ -18235,7 +18238,7 @@
         <v>14</v>
       </c>
       <c r="B222" s="1" t="str">
-        <f>MID(A222,33,LEN(A222) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C222" s="1">
@@ -18253,7 +18256,7 @@
         <v>14</v>
       </c>
       <c r="B223" s="1" t="str">
-        <f>MID(A223,33,LEN(A223) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C223" s="1">
@@ -18271,7 +18274,7 @@
         <v>14</v>
       </c>
       <c r="B224" s="1" t="str">
-        <f>MID(A224,33,LEN(A224) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C224" s="1">
@@ -18289,7 +18292,7 @@
         <v>14</v>
       </c>
       <c r="B225" s="1" t="str">
-        <f>MID(A225,33,LEN(A225) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C225" s="1">
@@ -18307,7 +18310,7 @@
         <v>14</v>
       </c>
       <c r="B226" s="1" t="str">
-        <f>MID(A226,33,LEN(A226) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C226" s="1">
@@ -18325,7 +18328,7 @@
         <v>14</v>
       </c>
       <c r="B227" s="1" t="str">
-        <f>MID(A227,33,LEN(A227) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C227" s="1">
@@ -18343,7 +18346,7 @@
         <v>14</v>
       </c>
       <c r="B228" s="1" t="str">
-        <f>MID(A228,33,LEN(A228) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C228" s="1">
@@ -18361,7 +18364,7 @@
         <v>14</v>
       </c>
       <c r="B229" s="1" t="str">
-        <f>MID(A229,33,LEN(A229) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C229" s="1">
@@ -18379,7 +18382,7 @@
         <v>14</v>
       </c>
       <c r="B230" s="1" t="str">
-        <f>MID(A230,33,LEN(A230) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C230" s="1">
@@ -18397,7 +18400,7 @@
         <v>14</v>
       </c>
       <c r="B231" s="1" t="str">
-        <f>MID(A231,33,LEN(A231) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C231" s="1">
@@ -18415,7 +18418,7 @@
         <v>14</v>
       </c>
       <c r="B232" s="1" t="str">
-        <f>MID(A232,33,LEN(A232) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C232" s="1">
@@ -18433,7 +18436,7 @@
         <v>14</v>
       </c>
       <c r="B233" s="1" t="str">
-        <f>MID(A233,33,LEN(A233) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C233" s="1">
@@ -18451,7 +18454,7 @@
         <v>14</v>
       </c>
       <c r="B234" s="1" t="str">
-        <f>MID(A234,33,LEN(A234) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C234" s="1">
@@ -18469,7 +18472,7 @@
         <v>14</v>
       </c>
       <c r="B235" s="1" t="str">
-        <f>MID(A235,33,LEN(A235) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C235" s="1">
@@ -18487,7 +18490,7 @@
         <v>14</v>
       </c>
       <c r="B236" s="1" t="str">
-        <f>MID(A236,33,LEN(A236) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C236" s="1">
@@ -18505,7 +18508,7 @@
         <v>14</v>
       </c>
       <c r="B237" s="1" t="str">
-        <f>MID(A237,33,LEN(A237) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C237" s="1">
@@ -18523,7 +18526,7 @@
         <v>14</v>
       </c>
       <c r="B238" s="1" t="str">
-        <f>MID(A238,33,LEN(A238) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C238" s="1">
@@ -18541,7 +18544,7 @@
         <v>14</v>
       </c>
       <c r="B239" s="1" t="str">
-        <f>MID(A239,33,LEN(A239) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C239" s="1">
@@ -18559,7 +18562,7 @@
         <v>14</v>
       </c>
       <c r="B240" s="1" t="str">
-        <f>MID(A240,33,LEN(A240) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C240" s="1">
@@ -18577,7 +18580,7 @@
         <v>14</v>
       </c>
       <c r="B241" s="1" t="str">
-        <f>MID(A241,33,LEN(A241) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C241" s="1">
@@ -18595,7 +18598,7 @@
         <v>14</v>
       </c>
       <c r="B242" s="1" t="str">
-        <f>MID(A242,33,LEN(A242) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C242" s="1">
@@ -18613,7 +18616,7 @@
         <v>14</v>
       </c>
       <c r="B243" s="1" t="str">
-        <f>MID(A243,33,LEN(A243) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C243" s="1">
@@ -18631,7 +18634,7 @@
         <v>14</v>
       </c>
       <c r="B244" s="1" t="str">
-        <f>MID(A244,33,LEN(A244) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C244">
@@ -18649,7 +18652,7 @@
         <v>14</v>
       </c>
       <c r="B245" s="1" t="str">
-        <f>MID(A245,33,LEN(A245) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C245">
@@ -18667,7 +18670,7 @@
         <v>14</v>
       </c>
       <c r="B246" s="1" t="str">
-        <f>MID(A246,33,LEN(A246) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C246">
@@ -18685,7 +18688,7 @@
         <v>14</v>
       </c>
       <c r="B247" s="1" t="str">
-        <f>MID(A247,33,LEN(A247) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C247">
@@ -18703,7 +18706,7 @@
         <v>14</v>
       </c>
       <c r="B248" s="1" t="str">
-        <f>MID(A248,33,LEN(A248) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C248">
@@ -18721,7 +18724,7 @@
         <v>14</v>
       </c>
       <c r="B249" s="1" t="str">
-        <f>MID(A249,33,LEN(A249) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C249">
@@ -18739,7 +18742,7 @@
         <v>14</v>
       </c>
       <c r="B250" s="1" t="str">
-        <f>MID(A250,33,LEN(A250) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C250">
@@ -18757,7 +18760,7 @@
         <v>14</v>
       </c>
       <c r="B251" s="1" t="str">
-        <f>MID(A251,33,LEN(A251) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C251">
@@ -18775,7 +18778,7 @@
         <v>14</v>
       </c>
       <c r="B252" s="1" t="str">
-        <f>MID(A252,33,LEN(A252) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C252">
@@ -18793,7 +18796,7 @@
         <v>14</v>
       </c>
       <c r="B253" s="1" t="str">
-        <f>MID(A253,33,LEN(A253) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C253">
@@ -18811,7 +18814,7 @@
         <v>14</v>
       </c>
       <c r="B254" s="1" t="str">
-        <f>MID(A254,33,LEN(A254) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C254">
@@ -18829,7 +18832,7 @@
         <v>14</v>
       </c>
       <c r="B255" s="1" t="str">
-        <f>MID(A255,33,LEN(A255) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C255">
@@ -18847,7 +18850,7 @@
         <v>14</v>
       </c>
       <c r="B256" s="1" t="str">
-        <f>MID(A256,33,LEN(A256) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C256">
@@ -18865,7 +18868,7 @@
         <v>14</v>
       </c>
       <c r="B257" s="1" t="str">
-        <f>MID(A257,33,LEN(A257) - 36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C257">
@@ -18883,7 +18886,7 @@
         <v>14</v>
       </c>
       <c r="B258" s="1" t="str">
-        <f>MID(A258,33,LEN(A258) - 36)</f>
+        <f t="shared" ref="B258:B321" si="15">MID(A258,33,LEN(A258) - 36)</f>
         <v>2</v>
       </c>
       <c r="C258">
@@ -18901,7 +18904,7 @@
         <v>14</v>
       </c>
       <c r="B259" s="1" t="str">
-        <f>MID(A259,33,LEN(A259) - 36)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C259">
@@ -18919,7 +18922,7 @@
         <v>14</v>
       </c>
       <c r="B260" s="1" t="str">
-        <f>MID(A260,33,LEN(A260) - 36)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C260">
@@ -18937,7 +18940,7 @@
         <v>14</v>
       </c>
       <c r="B261" s="1" t="str">
-        <f>MID(A261,33,LEN(A261) - 36)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C261">
@@ -18955,7 +18958,7 @@
         <v>14</v>
       </c>
       <c r="B262" s="1" t="str">
-        <f>MID(A262,33,LEN(A262) - 36)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C262">
@@ -18973,7 +18976,7 @@
         <v>14</v>
       </c>
       <c r="B263" s="1" t="str">
-        <f>MID(A263,33,LEN(A263) - 36)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C263">
@@ -18991,7 +18994,7 @@
         <v>14</v>
       </c>
       <c r="B264" s="1" t="str">
-        <f>MID(A264,33,LEN(A264) - 36)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C264">
@@ -19009,7 +19012,7 @@
         <v>14</v>
       </c>
       <c r="B265" s="1" t="str">
-        <f>MID(A265,33,LEN(A265) - 36)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C265">
@@ -19027,7 +19030,7 @@
         <v>14</v>
       </c>
       <c r="B266" s="1" t="str">
-        <f>MID(A266,33,LEN(A266) - 36)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C266">
@@ -19045,7 +19048,7 @@
         <v>14</v>
       </c>
       <c r="B267" s="1" t="str">
-        <f>MID(A267,33,LEN(A267) - 36)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C267">
@@ -19063,7 +19066,7 @@
         <v>14</v>
       </c>
       <c r="B268" s="1" t="str">
-        <f>MID(A268,33,LEN(A268) - 36)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C268">
@@ -19081,7 +19084,7 @@
         <v>14</v>
       </c>
       <c r="B269" s="1" t="str">
-        <f>MID(A269,33,LEN(A269) - 36)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C269">
@@ -19099,7 +19102,7 @@
         <v>14</v>
       </c>
       <c r="B270" s="1" t="str">
-        <f>MID(A270,33,LEN(A270) - 36)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C270">
@@ -19117,7 +19120,7 @@
         <v>14</v>
       </c>
       <c r="B271" s="1" t="str">
-        <f>MID(A271,33,LEN(A271) - 36)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C271">
@@ -19135,7 +19138,7 @@
         <v>14</v>
       </c>
       <c r="B272" s="1" t="str">
-        <f>MID(A272,33,LEN(A272) - 36)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C272">
@@ -19153,7 +19156,7 @@
         <v>14</v>
       </c>
       <c r="B273" s="1" t="str">
-        <f>MID(A273,33,LEN(A273) - 36)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C273">
@@ -19171,7 +19174,7 @@
         <v>14</v>
       </c>
       <c r="B274" s="1" t="str">
-        <f>MID(A274,33,LEN(A274) - 36)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C274">
@@ -19189,7 +19192,7 @@
         <v>14</v>
       </c>
       <c r="B275" s="1" t="str">
-        <f>MID(A275,33,LEN(A275) - 36)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C275">
@@ -19207,7 +19210,7 @@
         <v>14</v>
       </c>
       <c r="B276" s="1" t="str">
-        <f>MID(A276,33,LEN(A276) - 36)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C276">
@@ -19225,7 +19228,7 @@
         <v>14</v>
       </c>
       <c r="B277" s="1" t="str">
-        <f>MID(A277,33,LEN(A277) - 36)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C277">
@@ -19243,7 +19246,7 @@
         <v>14</v>
       </c>
       <c r="B278" s="1" t="str">
-        <f>MID(A278,33,LEN(A278) - 36)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C278">
@@ -19261,7 +19264,7 @@
         <v>14</v>
       </c>
       <c r="B279" s="1" t="str">
-        <f>MID(A279,33,LEN(A279) - 36)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C279">
@@ -19279,7 +19282,7 @@
         <v>14</v>
       </c>
       <c r="B280" s="1" t="str">
-        <f>MID(A280,33,LEN(A280) - 36)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C280">
@@ -19297,7 +19300,7 @@
         <v>14</v>
       </c>
       <c r="B281" s="1" t="str">
-        <f>MID(A281,33,LEN(A281) - 36)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C281">
@@ -19315,7 +19318,7 @@
         <v>14</v>
       </c>
       <c r="B282" s="1" t="str">
-        <f>MID(A282,33,LEN(A282) - 36)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C282">
@@ -19333,7 +19336,7 @@
         <v>14</v>
       </c>
       <c r="B283" s="1" t="str">
-        <f>MID(A283,33,LEN(A283) - 36)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C283">
@@ -19351,7 +19354,7 @@
         <v>14</v>
       </c>
       <c r="B284" s="1" t="str">
-        <f>MID(A284,33,LEN(A284) - 36)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C284">
@@ -19369,7 +19372,7 @@
         <v>14</v>
       </c>
       <c r="B285" s="1" t="str">
-        <f>MID(A285,33,LEN(A285) - 36)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C285">
@@ -19387,7 +19390,7 @@
         <v>14</v>
       </c>
       <c r="B286" s="1" t="str">
-        <f>MID(A286,33,LEN(A286) - 36)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C286">
@@ -19405,7 +19408,7 @@
         <v>14</v>
       </c>
       <c r="B287" s="1" t="str">
-        <f>MID(A287,33,LEN(A287) - 36)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C287">
@@ -19423,7 +19426,7 @@
         <v>14</v>
       </c>
       <c r="B288" s="1" t="str">
-        <f>MID(A288,33,LEN(A288) - 36)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C288">
@@ -19441,7 +19444,7 @@
         <v>14</v>
       </c>
       <c r="B289" s="1" t="str">
-        <f>MID(A289,33,LEN(A289) - 36)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C289">
@@ -19459,7 +19462,7 @@
         <v>14</v>
       </c>
       <c r="B290" s="1" t="str">
-        <f>MID(A290,33,LEN(A290) - 36)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C290">
@@ -19477,7 +19480,7 @@
         <v>14</v>
       </c>
       <c r="B291" s="1" t="str">
-        <f>MID(A291,33,LEN(A291) - 36)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C291">
@@ -19495,7 +19498,7 @@
         <v>14</v>
       </c>
       <c r="B292" s="1" t="str">
-        <f>MID(A292,33,LEN(A292) - 36)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C292">
@@ -19513,7 +19516,7 @@
         <v>14</v>
       </c>
       <c r="B293" s="1" t="str">
-        <f>MID(A293,33,LEN(A293) - 36)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C293">
@@ -19531,7 +19534,7 @@
         <v>14</v>
       </c>
       <c r="B294" s="1" t="str">
-        <f>MID(A294,33,LEN(A294) - 36)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C294">
@@ -19549,7 +19552,7 @@
         <v>14</v>
       </c>
       <c r="B295" s="1" t="str">
-        <f>MID(A295,33,LEN(A295) - 36)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C295">
@@ -19567,7 +19570,7 @@
         <v>14</v>
       </c>
       <c r="B296" s="1" t="str">
-        <f>MID(A296,33,LEN(A296) - 36)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C296">
@@ -19585,7 +19588,7 @@
         <v>14</v>
       </c>
       <c r="B297" s="1" t="str">
-        <f>MID(A297,33,LEN(A297) - 36)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C297">
@@ -19603,7 +19606,7 @@
         <v>14</v>
       </c>
       <c r="B298" s="1" t="str">
-        <f>MID(A298,33,LEN(A298) - 36)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C298">
@@ -19621,7 +19624,7 @@
         <v>14</v>
       </c>
       <c r="B299" s="1" t="str">
-        <f>MID(A299,33,LEN(A299) - 36)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C299">
@@ -19639,7 +19642,7 @@
         <v>14</v>
       </c>
       <c r="B300" s="1" t="str">
-        <f>MID(A300,33,LEN(A300) - 36)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C300">
@@ -19657,7 +19660,7 @@
         <v>14</v>
       </c>
       <c r="B301" s="1" t="str">
-        <f>MID(A301,33,LEN(A301) - 36)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="C301">
@@ -19675,7 +19678,7 @@
         <v>16</v>
       </c>
       <c r="B302" s="1" t="str">
-        <f>MID(A302,33,LEN(A302) - 36)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="C302" s="1">
@@ -19693,7 +19696,7 @@
         <v>16</v>
       </c>
       <c r="B303" s="1" t="str">
-        <f>MID(A303,33,LEN(A303) - 36)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="C303" s="1">
@@ -19711,7 +19714,7 @@
         <v>16</v>
       </c>
       <c r="B304" s="1" t="str">
-        <f>MID(A304,33,LEN(A304) - 36)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="C304" s="1">
@@ -19729,7 +19732,7 @@
         <v>16</v>
       </c>
       <c r="B305" s="1" t="str">
-        <f>MID(A305,33,LEN(A305) - 36)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="C305" s="1">
@@ -19747,7 +19750,7 @@
         <v>16</v>
       </c>
       <c r="B306" s="1" t="str">
-        <f>MID(A306,33,LEN(A306) - 36)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="C306" s="1">
@@ -19765,7 +19768,7 @@
         <v>16</v>
       </c>
       <c r="B307" s="1" t="str">
-        <f>MID(A307,33,LEN(A307) - 36)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="C307" s="1">
@@ -19783,7 +19786,7 @@
         <v>16</v>
       </c>
       <c r="B308" s="1" t="str">
-        <f>MID(A308,33,LEN(A308) - 36)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="C308" s="1">
@@ -19801,7 +19804,7 @@
         <v>16</v>
       </c>
       <c r="B309" s="1" t="str">
-        <f>MID(A309,33,LEN(A309) - 36)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="C309" s="1">
@@ -19819,7 +19822,7 @@
         <v>16</v>
       </c>
       <c r="B310" s="1" t="str">
-        <f>MID(A310,33,LEN(A310) - 36)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="C310" s="1">
@@ -19837,7 +19840,7 @@
         <v>16</v>
       </c>
       <c r="B311" s="1" t="str">
-        <f>MID(A311,33,LEN(A311) - 36)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="C311" s="1">
@@ -19855,7 +19858,7 @@
         <v>16</v>
       </c>
       <c r="B312" s="1" t="str">
-        <f>MID(A312,33,LEN(A312) - 36)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="C312" s="1">
@@ -19873,7 +19876,7 @@
         <v>16</v>
       </c>
       <c r="B313" s="1" t="str">
-        <f>MID(A313,33,LEN(A313) - 36)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="C313" s="1">
@@ -19891,7 +19894,7 @@
         <v>16</v>
       </c>
       <c r="B314" s="1" t="str">
-        <f>MID(A314,33,LEN(A314) - 36)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="C314" s="1">
@@ -19909,7 +19912,7 @@
         <v>16</v>
       </c>
       <c r="B315" s="1" t="str">
-        <f>MID(A315,33,LEN(A315) - 36)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="C315" s="1">
@@ -19927,7 +19930,7 @@
         <v>16</v>
       </c>
       <c r="B316" s="1" t="str">
-        <f>MID(A316,33,LEN(A316) - 36)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="C316" s="1">
@@ -19945,7 +19948,7 @@
         <v>16</v>
       </c>
       <c r="B317" s="1" t="str">
-        <f>MID(A317,33,LEN(A317) - 36)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="C317" s="1">
@@ -19963,7 +19966,7 @@
         <v>16</v>
       </c>
       <c r="B318" s="1" t="str">
-        <f>MID(A318,33,LEN(A318) - 36)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="C318" s="1">
@@ -19981,7 +19984,7 @@
         <v>16</v>
       </c>
       <c r="B319" s="1" t="str">
-        <f>MID(A319,33,LEN(A319) - 36)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="C319" s="1">
@@ -19999,7 +20002,7 @@
         <v>16</v>
       </c>
       <c r="B320" s="1" t="str">
-        <f>MID(A320,33,LEN(A320) - 36)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="C320" s="1">
@@ -20017,7 +20020,7 @@
         <v>16</v>
       </c>
       <c r="B321" s="1" t="str">
-        <f>MID(A321,33,LEN(A321) - 36)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="C321" s="1">
@@ -20035,7 +20038,7 @@
         <v>16</v>
       </c>
       <c r="B322" s="1" t="str">
-        <f>MID(A322,33,LEN(A322) - 36)</f>
+        <f t="shared" ref="B322:B385" si="16">MID(A322,33,LEN(A322) - 36)</f>
         <v>3</v>
       </c>
       <c r="C322" s="1">
@@ -20053,7 +20056,7 @@
         <v>16</v>
       </c>
       <c r="B323" s="1" t="str">
-        <f>MID(A323,33,LEN(A323) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C323" s="1">
@@ -20071,7 +20074,7 @@
         <v>16</v>
       </c>
       <c r="B324" s="1" t="str">
-        <f>MID(A324,33,LEN(A324) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C324" s="1">
@@ -20089,7 +20092,7 @@
         <v>16</v>
       </c>
       <c r="B325" s="1" t="str">
-        <f>MID(A325,33,LEN(A325) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C325" s="1">
@@ -20107,7 +20110,7 @@
         <v>16</v>
       </c>
       <c r="B326" s="1" t="str">
-        <f>MID(A326,33,LEN(A326) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C326" s="1">
@@ -20125,7 +20128,7 @@
         <v>16</v>
       </c>
       <c r="B327" s="1" t="str">
-        <f>MID(A327,33,LEN(A327) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C327" s="1">
@@ -20143,7 +20146,7 @@
         <v>16</v>
       </c>
       <c r="B328" s="1" t="str">
-        <f>MID(A328,33,LEN(A328) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C328" s="1">
@@ -20161,7 +20164,7 @@
         <v>16</v>
       </c>
       <c r="B329" s="1" t="str">
-        <f>MID(A329,33,LEN(A329) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C329" s="1">
@@ -20179,7 +20182,7 @@
         <v>16</v>
       </c>
       <c r="B330" s="1" t="str">
-        <f>MID(A330,33,LEN(A330) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C330" s="1">
@@ -20197,7 +20200,7 @@
         <v>16</v>
       </c>
       <c r="B331" s="1" t="str">
-        <f>MID(A331,33,LEN(A331) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C331" s="1">
@@ -20215,7 +20218,7 @@
         <v>16</v>
       </c>
       <c r="B332" s="1" t="str">
-        <f>MID(A332,33,LEN(A332) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C332" s="1">
@@ -20233,7 +20236,7 @@
         <v>16</v>
       </c>
       <c r="B333" s="1" t="str">
-        <f>MID(A333,33,LEN(A333) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C333" s="1">
@@ -20251,7 +20254,7 @@
         <v>16</v>
       </c>
       <c r="B334" s="1" t="str">
-        <f>MID(A334,33,LEN(A334) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C334" s="1">
@@ -20269,7 +20272,7 @@
         <v>16</v>
       </c>
       <c r="B335" s="1" t="str">
-        <f>MID(A335,33,LEN(A335) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C335" s="1">
@@ -20287,7 +20290,7 @@
         <v>16</v>
       </c>
       <c r="B336" s="1" t="str">
-        <f>MID(A336,33,LEN(A336) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C336" s="1">
@@ -20305,7 +20308,7 @@
         <v>16</v>
       </c>
       <c r="B337" s="1" t="str">
-        <f>MID(A337,33,LEN(A337) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C337" s="1">
@@ -20323,7 +20326,7 @@
         <v>16</v>
       </c>
       <c r="B338" s="1" t="str">
-        <f>MID(A338,33,LEN(A338) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C338" s="1">
@@ -20341,7 +20344,7 @@
         <v>16</v>
       </c>
       <c r="B339" s="1" t="str">
-        <f>MID(A339,33,LEN(A339) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C339" s="1">
@@ -20359,7 +20362,7 @@
         <v>16</v>
       </c>
       <c r="B340" s="1" t="str">
-        <f>MID(A340,33,LEN(A340) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C340" s="1">
@@ -20377,7 +20380,7 @@
         <v>16</v>
       </c>
       <c r="B341" s="1" t="str">
-        <f>MID(A341,33,LEN(A341) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C341" s="1">
@@ -20395,7 +20398,7 @@
         <v>16</v>
       </c>
       <c r="B342" s="1" t="str">
-        <f>MID(A342,33,LEN(A342) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C342" s="1">
@@ -20413,7 +20416,7 @@
         <v>16</v>
       </c>
       <c r="B343" s="1" t="str">
-        <f>MID(A343,33,LEN(A343) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C343" s="1">
@@ -20431,7 +20434,7 @@
         <v>16</v>
       </c>
       <c r="B344" s="1" t="str">
-        <f>MID(A344,33,LEN(A344) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C344">
@@ -20449,7 +20452,7 @@
         <v>16</v>
       </c>
       <c r="B345" s="1" t="str">
-        <f>MID(A345,33,LEN(A345) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C345">
@@ -20467,7 +20470,7 @@
         <v>16</v>
       </c>
       <c r="B346" s="1" t="str">
-        <f>MID(A346,33,LEN(A346) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C346">
@@ -20485,7 +20488,7 @@
         <v>16</v>
       </c>
       <c r="B347" s="1" t="str">
-        <f>MID(A347,33,LEN(A347) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C347">
@@ -20503,7 +20506,7 @@
         <v>16</v>
       </c>
       <c r="B348" s="1" t="str">
-        <f>MID(A348,33,LEN(A348) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C348">
@@ -20521,7 +20524,7 @@
         <v>16</v>
       </c>
       <c r="B349" s="1" t="str">
-        <f>MID(A349,33,LEN(A349) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C349">
@@ -20539,7 +20542,7 @@
         <v>16</v>
       </c>
       <c r="B350" s="1" t="str">
-        <f>MID(A350,33,LEN(A350) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C350">
@@ -20557,7 +20560,7 @@
         <v>16</v>
       </c>
       <c r="B351" s="1" t="str">
-        <f>MID(A351,33,LEN(A351) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C351">
@@ -20575,7 +20578,7 @@
         <v>16</v>
       </c>
       <c r="B352" s="1" t="str">
-        <f>MID(A352,33,LEN(A352) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C352">
@@ -20593,7 +20596,7 @@
         <v>16</v>
       </c>
       <c r="B353" s="1" t="str">
-        <f>MID(A353,33,LEN(A353) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C353">
@@ -20611,7 +20614,7 @@
         <v>16</v>
       </c>
       <c r="B354" s="1" t="str">
-        <f>MID(A354,33,LEN(A354) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C354">
@@ -20629,7 +20632,7 @@
         <v>16</v>
       </c>
       <c r="B355" s="1" t="str">
-        <f>MID(A355,33,LEN(A355) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C355">
@@ -20647,7 +20650,7 @@
         <v>16</v>
       </c>
       <c r="B356" s="1" t="str">
-        <f>MID(A356,33,LEN(A356) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C356">
@@ -20665,7 +20668,7 @@
         <v>16</v>
       </c>
       <c r="B357" s="1" t="str">
-        <f>MID(A357,33,LEN(A357) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C357">
@@ -20683,7 +20686,7 @@
         <v>16</v>
       </c>
       <c r="B358" s="1" t="str">
-        <f>MID(A358,33,LEN(A358) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C358">
@@ -20701,7 +20704,7 @@
         <v>16</v>
       </c>
       <c r="B359" s="1" t="str">
-        <f>MID(A359,33,LEN(A359) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C359">
@@ -20719,7 +20722,7 @@
         <v>16</v>
       </c>
       <c r="B360" s="1" t="str">
-        <f>MID(A360,33,LEN(A360) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C360">
@@ -20737,7 +20740,7 @@
         <v>16</v>
       </c>
       <c r="B361" s="1" t="str">
-        <f>MID(A361,33,LEN(A361) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C361">
@@ -20755,7 +20758,7 @@
         <v>16</v>
       </c>
       <c r="B362" s="1" t="str">
-        <f>MID(A362,33,LEN(A362) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C362">
@@ -20773,7 +20776,7 @@
         <v>16</v>
       </c>
       <c r="B363" s="1" t="str">
-        <f>MID(A363,33,LEN(A363) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C363">
@@ -20791,7 +20794,7 @@
         <v>16</v>
       </c>
       <c r="B364" s="1" t="str">
-        <f>MID(A364,33,LEN(A364) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C364">
@@ -20809,7 +20812,7 @@
         <v>16</v>
       </c>
       <c r="B365" s="1" t="str">
-        <f>MID(A365,33,LEN(A365) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C365">
@@ -20827,7 +20830,7 @@
         <v>16</v>
       </c>
       <c r="B366" s="1" t="str">
-        <f>MID(A366,33,LEN(A366) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C366">
@@ -20845,7 +20848,7 @@
         <v>16</v>
       </c>
       <c r="B367" s="1" t="str">
-        <f>MID(A367,33,LEN(A367) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C367">
@@ -20863,7 +20866,7 @@
         <v>16</v>
       </c>
       <c r="B368" s="1" t="str">
-        <f>MID(A368,33,LEN(A368) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C368">
@@ -20881,7 +20884,7 @@
         <v>16</v>
       </c>
       <c r="B369" s="1" t="str">
-        <f>MID(A369,33,LEN(A369) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C369">
@@ -20899,7 +20902,7 @@
         <v>16</v>
       </c>
       <c r="B370" s="1" t="str">
-        <f>MID(A370,33,LEN(A370) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C370">
@@ -20917,7 +20920,7 @@
         <v>16</v>
       </c>
       <c r="B371" s="1" t="str">
-        <f>MID(A371,33,LEN(A371) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C371">
@@ -20935,7 +20938,7 @@
         <v>16</v>
       </c>
       <c r="B372" s="1" t="str">
-        <f>MID(A372,33,LEN(A372) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C372">
@@ -20953,7 +20956,7 @@
         <v>16</v>
       </c>
       <c r="B373" s="1" t="str">
-        <f>MID(A373,33,LEN(A373) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C373">
@@ -20971,7 +20974,7 @@
         <v>16</v>
       </c>
       <c r="B374" s="1" t="str">
-        <f>MID(A374,33,LEN(A374) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C374">
@@ -20989,7 +20992,7 @@
         <v>16</v>
       </c>
       <c r="B375" s="1" t="str">
-        <f>MID(A375,33,LEN(A375) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C375">
@@ -21007,7 +21010,7 @@
         <v>16</v>
       </c>
       <c r="B376" s="1" t="str">
-        <f>MID(A376,33,LEN(A376) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C376">
@@ -21025,7 +21028,7 @@
         <v>16</v>
       </c>
       <c r="B377" s="1" t="str">
-        <f>MID(A377,33,LEN(A377) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C377">
@@ -21043,7 +21046,7 @@
         <v>16</v>
       </c>
       <c r="B378" s="1" t="str">
-        <f>MID(A378,33,LEN(A378) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C378">
@@ -21061,7 +21064,7 @@
         <v>16</v>
       </c>
       <c r="B379" s="1" t="str">
-        <f>MID(A379,33,LEN(A379) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C379">
@@ -21079,7 +21082,7 @@
         <v>16</v>
       </c>
       <c r="B380" s="1" t="str">
-        <f>MID(A380,33,LEN(A380) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C380">
@@ -21097,7 +21100,7 @@
         <v>16</v>
       </c>
       <c r="B381" s="1" t="str">
-        <f>MID(A381,33,LEN(A381) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C381">
@@ -21115,7 +21118,7 @@
         <v>16</v>
       </c>
       <c r="B382" s="1" t="str">
-        <f>MID(A382,33,LEN(A382) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C382">
@@ -21133,7 +21136,7 @@
         <v>16</v>
       </c>
       <c r="B383" s="1" t="str">
-        <f>MID(A383,33,LEN(A383) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C383">
@@ -21151,7 +21154,7 @@
         <v>16</v>
       </c>
       <c r="B384" s="1" t="str">
-        <f>MID(A384,33,LEN(A384) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C384">
@@ -21169,7 +21172,7 @@
         <v>16</v>
       </c>
       <c r="B385" s="1" t="str">
-        <f>MID(A385,33,LEN(A385) - 36)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="C385">
@@ -21187,7 +21190,7 @@
         <v>16</v>
       </c>
       <c r="B386" s="1" t="str">
-        <f>MID(A386,33,LEN(A386) - 36)</f>
+        <f t="shared" ref="B386:B449" si="17">MID(A386,33,LEN(A386) - 36)</f>
         <v>3</v>
       </c>
       <c r="C386">
@@ -21205,7 +21208,7 @@
         <v>16</v>
       </c>
       <c r="B387" s="1" t="str">
-        <f>MID(A387,33,LEN(A387) - 36)</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="C387">
@@ -21223,7 +21226,7 @@
         <v>16</v>
       </c>
       <c r="B388" s="1" t="str">
-        <f>MID(A388,33,LEN(A388) - 36)</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="C388">
@@ -21241,7 +21244,7 @@
         <v>16</v>
       </c>
       <c r="B389" s="1" t="str">
-        <f>MID(A389,33,LEN(A389) - 36)</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="C389">
@@ -21259,7 +21262,7 @@
         <v>16</v>
       </c>
       <c r="B390" s="1" t="str">
-        <f>MID(A390,33,LEN(A390) - 36)</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="C390">
@@ -21277,7 +21280,7 @@
         <v>16</v>
       </c>
       <c r="B391" s="1" t="str">
-        <f>MID(A391,33,LEN(A391) - 36)</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="C391">
@@ -21295,7 +21298,7 @@
         <v>16</v>
       </c>
       <c r="B392" s="1" t="str">
-        <f>MID(A392,33,LEN(A392) - 36)</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="C392">
@@ -21313,7 +21316,7 @@
         <v>16</v>
       </c>
       <c r="B393" s="1" t="str">
-        <f>MID(A393,33,LEN(A393) - 36)</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="C393">
@@ -21331,7 +21334,7 @@
         <v>16</v>
       </c>
       <c r="B394" s="1" t="str">
-        <f>MID(A394,33,LEN(A394) - 36)</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="C394">
@@ -21349,7 +21352,7 @@
         <v>16</v>
       </c>
       <c r="B395" s="1" t="str">
-        <f>MID(A395,33,LEN(A395) - 36)</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="C395">
@@ -21367,7 +21370,7 @@
         <v>16</v>
       </c>
       <c r="B396" s="1" t="str">
-        <f>MID(A396,33,LEN(A396) - 36)</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="C396">
@@ -21385,7 +21388,7 @@
         <v>16</v>
       </c>
       <c r="B397" s="1" t="str">
-        <f>MID(A397,33,LEN(A397) - 36)</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="C397">
@@ -21403,7 +21406,7 @@
         <v>16</v>
       </c>
       <c r="B398" s="1" t="str">
-        <f>MID(A398,33,LEN(A398) - 36)</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="C398">
@@ -21421,7 +21424,7 @@
         <v>16</v>
       </c>
       <c r="B399" s="1" t="str">
-        <f>MID(A399,33,LEN(A399) - 36)</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="C399">
@@ -21439,7 +21442,7 @@
         <v>16</v>
       </c>
       <c r="B400" s="1" t="str">
-        <f>MID(A400,33,LEN(A400) - 36)</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="C400">
@@ -21457,7 +21460,7 @@
         <v>16</v>
       </c>
       <c r="B401" s="1" t="str">
-        <f>MID(A401,33,LEN(A401) - 36)</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="C401">
@@ -21475,7 +21478,7 @@
         <v>18</v>
       </c>
       <c r="B402" s="1" t="str">
-        <f>MID(A402,33,LEN(A402) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C402" s="1">
@@ -21493,7 +21496,7 @@
         <v>18</v>
       </c>
       <c r="B403" s="1" t="str">
-        <f>MID(A403,33,LEN(A403) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C403" s="1">
@@ -21511,7 +21514,7 @@
         <v>18</v>
       </c>
       <c r="B404" s="1" t="str">
-        <f>MID(A404,33,LEN(A404) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C404" s="1">
@@ -21529,7 +21532,7 @@
         <v>18</v>
       </c>
       <c r="B405" s="1" t="str">
-        <f>MID(A405,33,LEN(A405) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C405" s="1">
@@ -21547,7 +21550,7 @@
         <v>18</v>
       </c>
       <c r="B406" s="1" t="str">
-        <f>MID(A406,33,LEN(A406) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C406" s="1">
@@ -21565,7 +21568,7 @@
         <v>18</v>
       </c>
       <c r="B407" s="1" t="str">
-        <f>MID(A407,33,LEN(A407) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C407" s="1">
@@ -21583,7 +21586,7 @@
         <v>18</v>
       </c>
       <c r="B408" s="1" t="str">
-        <f>MID(A408,33,LEN(A408) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C408" s="1">
@@ -21601,7 +21604,7 @@
         <v>18</v>
       </c>
       <c r="B409" s="1" t="str">
-        <f>MID(A409,33,LEN(A409) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C409" s="1">
@@ -21619,7 +21622,7 @@
         <v>18</v>
       </c>
       <c r="B410" s="1" t="str">
-        <f>MID(A410,33,LEN(A410) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C410" s="1">
@@ -21637,7 +21640,7 @@
         <v>18</v>
       </c>
       <c r="B411" s="1" t="str">
-        <f>MID(A411,33,LEN(A411) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C411" s="1">
@@ -21655,7 +21658,7 @@
         <v>18</v>
       </c>
       <c r="B412" s="1" t="str">
-        <f>MID(A412,33,LEN(A412) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C412" s="1">
@@ -21673,7 +21676,7 @@
         <v>18</v>
       </c>
       <c r="B413" s="1" t="str">
-        <f>MID(A413,33,LEN(A413) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C413" s="1">
@@ -21691,7 +21694,7 @@
         <v>18</v>
       </c>
       <c r="B414" s="1" t="str">
-        <f>MID(A414,33,LEN(A414) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C414" s="1">
@@ -21709,7 +21712,7 @@
         <v>18</v>
       </c>
       <c r="B415" s="1" t="str">
-        <f>MID(A415,33,LEN(A415) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C415" s="1">
@@ -21727,7 +21730,7 @@
         <v>18</v>
       </c>
       <c r="B416" s="1" t="str">
-        <f>MID(A416,33,LEN(A416) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C416" s="1">
@@ -21745,7 +21748,7 @@
         <v>18</v>
       </c>
       <c r="B417" s="1" t="str">
-        <f>MID(A417,33,LEN(A417) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C417" s="1">
@@ -21763,7 +21766,7 @@
         <v>18</v>
       </c>
       <c r="B418" s="1" t="str">
-        <f>MID(A418,33,LEN(A418) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C418" s="1">
@@ -21781,7 +21784,7 @@
         <v>18</v>
       </c>
       <c r="B419" s="1" t="str">
-        <f>MID(A419,33,LEN(A419) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C419" s="1">
@@ -21799,7 +21802,7 @@
         <v>18</v>
       </c>
       <c r="B420" s="1" t="str">
-        <f>MID(A420,33,LEN(A420) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C420" s="1">
@@ -21817,7 +21820,7 @@
         <v>18</v>
       </c>
       <c r="B421" s="1" t="str">
-        <f>MID(A421,33,LEN(A421) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C421" s="1">
@@ -21835,7 +21838,7 @@
         <v>18</v>
       </c>
       <c r="B422" s="1" t="str">
-        <f>MID(A422,33,LEN(A422) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C422" s="1">
@@ -21853,7 +21856,7 @@
         <v>18</v>
       </c>
       <c r="B423" s="1" t="str">
-        <f>MID(A423,33,LEN(A423) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C423" s="1">
@@ -21871,7 +21874,7 @@
         <v>18</v>
       </c>
       <c r="B424" s="1" t="str">
-        <f>MID(A424,33,LEN(A424) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C424" s="1">
@@ -21889,7 +21892,7 @@
         <v>18</v>
       </c>
       <c r="B425" s="1" t="str">
-        <f>MID(A425,33,LEN(A425) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C425" s="1">
@@ -21907,7 +21910,7 @@
         <v>18</v>
       </c>
       <c r="B426" s="1" t="str">
-        <f>MID(A426,33,LEN(A426) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C426" s="1">
@@ -21925,7 +21928,7 @@
         <v>18</v>
       </c>
       <c r="B427" s="1" t="str">
-        <f>MID(A427,33,LEN(A427) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C427" s="1">
@@ -21943,7 +21946,7 @@
         <v>18</v>
       </c>
       <c r="B428" s="1" t="str">
-        <f>MID(A428,33,LEN(A428) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C428" s="1">
@@ -21961,7 +21964,7 @@
         <v>18</v>
       </c>
       <c r="B429" s="1" t="str">
-        <f>MID(A429,33,LEN(A429) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C429" s="1">
@@ -21979,7 +21982,7 @@
         <v>18</v>
       </c>
       <c r="B430" s="1" t="str">
-        <f>MID(A430,33,LEN(A430) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C430" s="1">
@@ -21997,7 +22000,7 @@
         <v>18</v>
       </c>
       <c r="B431" s="1" t="str">
-        <f>MID(A431,33,LEN(A431) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C431" s="1">
@@ -22015,7 +22018,7 @@
         <v>18</v>
       </c>
       <c r="B432" s="1" t="str">
-        <f>MID(A432,33,LEN(A432) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C432" s="1">
@@ -22033,7 +22036,7 @@
         <v>18</v>
       </c>
       <c r="B433" s="1" t="str">
-        <f>MID(A433,33,LEN(A433) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C433" s="1">
@@ -22051,7 +22054,7 @@
         <v>18</v>
       </c>
       <c r="B434" s="1" t="str">
-        <f>MID(A434,33,LEN(A434) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C434" s="1">
@@ -22069,7 +22072,7 @@
         <v>18</v>
       </c>
       <c r="B435" s="1" t="str">
-        <f>MID(A435,33,LEN(A435) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C435" s="1">
@@ -22087,7 +22090,7 @@
         <v>18</v>
       </c>
       <c r="B436" s="1" t="str">
-        <f>MID(A436,33,LEN(A436) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C436" s="1">
@@ -22105,7 +22108,7 @@
         <v>18</v>
       </c>
       <c r="B437" s="1" t="str">
-        <f>MID(A437,33,LEN(A437) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C437" s="1">
@@ -22123,7 +22126,7 @@
         <v>18</v>
       </c>
       <c r="B438" s="1" t="str">
-        <f>MID(A438,33,LEN(A438) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C438" s="1">
@@ -22141,7 +22144,7 @@
         <v>18</v>
       </c>
       <c r="B439" s="1" t="str">
-        <f>MID(A439,33,LEN(A439) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C439" s="1">
@@ -22159,7 +22162,7 @@
         <v>18</v>
       </c>
       <c r="B440" s="1" t="str">
-        <f>MID(A440,33,LEN(A440) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C440" s="1">
@@ -22177,7 +22180,7 @@
         <v>18</v>
       </c>
       <c r="B441" s="1" t="str">
-        <f>MID(A441,33,LEN(A441) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C441" s="1">
@@ -22195,7 +22198,7 @@
         <v>18</v>
       </c>
       <c r="B442" s="1" t="str">
-        <f>MID(A442,33,LEN(A442) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C442" s="1">
@@ -22213,7 +22216,7 @@
         <v>18</v>
       </c>
       <c r="B443" s="1" t="str">
-        <f>MID(A443,33,LEN(A443) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C443" s="1">
@@ -22231,7 +22234,7 @@
         <v>18</v>
       </c>
       <c r="B444" s="1" t="str">
-        <f>MID(A444,33,LEN(A444) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C444">
@@ -22249,7 +22252,7 @@
         <v>18</v>
       </c>
       <c r="B445" s="1" t="str">
-        <f>MID(A445,33,LEN(A445) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C445">
@@ -22267,7 +22270,7 @@
         <v>18</v>
       </c>
       <c r="B446" s="1" t="str">
-        <f>MID(A446,33,LEN(A446) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C446">
@@ -22285,7 +22288,7 @@
         <v>18</v>
       </c>
       <c r="B447" s="1" t="str">
-        <f>MID(A447,33,LEN(A447) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C447">
@@ -22303,7 +22306,7 @@
         <v>18</v>
       </c>
       <c r="B448" s="1" t="str">
-        <f>MID(A448,33,LEN(A448) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C448">
@@ -22321,7 +22324,7 @@
         <v>18</v>
       </c>
       <c r="B449" s="1" t="str">
-        <f>MID(A449,33,LEN(A449) - 36)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C449">
@@ -22339,7 +22342,7 @@
         <v>18</v>
       </c>
       <c r="B450" s="1" t="str">
-        <f>MID(A450,33,LEN(A450) - 36)</f>
+        <f t="shared" ref="B450:B513" si="18">MID(A450,33,LEN(A450) - 36)</f>
         <v>4</v>
       </c>
       <c r="C450">
@@ -22357,7 +22360,7 @@
         <v>18</v>
       </c>
       <c r="B451" s="1" t="str">
-        <f>MID(A451,33,LEN(A451) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C451">
@@ -22375,7 +22378,7 @@
         <v>18</v>
       </c>
       <c r="B452" s="1" t="str">
-        <f>MID(A452,33,LEN(A452) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C452">
@@ -22393,7 +22396,7 @@
         <v>18</v>
       </c>
       <c r="B453" s="1" t="str">
-        <f>MID(A453,33,LEN(A453) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C453">
@@ -22411,7 +22414,7 @@
         <v>18</v>
       </c>
       <c r="B454" s="1" t="str">
-        <f>MID(A454,33,LEN(A454) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C454">
@@ -22429,7 +22432,7 @@
         <v>18</v>
       </c>
       <c r="B455" s="1" t="str">
-        <f>MID(A455,33,LEN(A455) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C455">
@@ -22447,7 +22450,7 @@
         <v>18</v>
       </c>
       <c r="B456" s="1" t="str">
-        <f>MID(A456,33,LEN(A456) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C456">
@@ -22465,7 +22468,7 @@
         <v>18</v>
       </c>
       <c r="B457" s="1" t="str">
-        <f>MID(A457,33,LEN(A457) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C457">
@@ -22483,7 +22486,7 @@
         <v>18</v>
       </c>
       <c r="B458" s="1" t="str">
-        <f>MID(A458,33,LEN(A458) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C458">
@@ -22501,7 +22504,7 @@
         <v>18</v>
       </c>
       <c r="B459" s="1" t="str">
-        <f>MID(A459,33,LEN(A459) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C459">
@@ -22519,7 +22522,7 @@
         <v>18</v>
       </c>
       <c r="B460" s="1" t="str">
-        <f>MID(A460,33,LEN(A460) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C460">
@@ -22537,7 +22540,7 @@
         <v>18</v>
       </c>
       <c r="B461" s="1" t="str">
-        <f>MID(A461,33,LEN(A461) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C461">
@@ -22555,7 +22558,7 @@
         <v>18</v>
       </c>
       <c r="B462" s="1" t="str">
-        <f>MID(A462,33,LEN(A462) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C462">
@@ -22573,7 +22576,7 @@
         <v>18</v>
       </c>
       <c r="B463" s="1" t="str">
-        <f>MID(A463,33,LEN(A463) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C463">
@@ -22591,7 +22594,7 @@
         <v>18</v>
       </c>
       <c r="B464" s="1" t="str">
-        <f>MID(A464,33,LEN(A464) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C464">
@@ -22609,7 +22612,7 @@
         <v>18</v>
       </c>
       <c r="B465" s="1" t="str">
-        <f>MID(A465,33,LEN(A465) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C465">
@@ -22627,7 +22630,7 @@
         <v>18</v>
       </c>
       <c r="B466" s="1" t="str">
-        <f>MID(A466,33,LEN(A466) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C466">
@@ -22645,7 +22648,7 @@
         <v>18</v>
       </c>
       <c r="B467" s="1" t="str">
-        <f>MID(A467,33,LEN(A467) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C467">
@@ -22663,7 +22666,7 @@
         <v>18</v>
       </c>
       <c r="B468" s="1" t="str">
-        <f>MID(A468,33,LEN(A468) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C468">
@@ -22681,7 +22684,7 @@
         <v>18</v>
       </c>
       <c r="B469" s="1" t="str">
-        <f>MID(A469,33,LEN(A469) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C469">
@@ -22699,7 +22702,7 @@
         <v>18</v>
       </c>
       <c r="B470" s="1" t="str">
-        <f>MID(A470,33,LEN(A470) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C470">
@@ -22717,7 +22720,7 @@
         <v>18</v>
       </c>
       <c r="B471" s="1" t="str">
-        <f>MID(A471,33,LEN(A471) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C471">
@@ -22735,7 +22738,7 @@
         <v>18</v>
       </c>
       <c r="B472" s="1" t="str">
-        <f>MID(A472,33,LEN(A472) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C472">
@@ -22753,7 +22756,7 @@
         <v>18</v>
       </c>
       <c r="B473" s="1" t="str">
-        <f>MID(A473,33,LEN(A473) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C473">
@@ -22771,7 +22774,7 @@
         <v>18</v>
       </c>
       <c r="B474" s="1" t="str">
-        <f>MID(A474,33,LEN(A474) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C474">
@@ -22789,7 +22792,7 @@
         <v>18</v>
       </c>
       <c r="B475" s="1" t="str">
-        <f>MID(A475,33,LEN(A475) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C475">
@@ -22807,7 +22810,7 @@
         <v>18</v>
       </c>
       <c r="B476" s="1" t="str">
-        <f>MID(A476,33,LEN(A476) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C476">
@@ -22825,7 +22828,7 @@
         <v>18</v>
       </c>
       <c r="B477" s="1" t="str">
-        <f>MID(A477,33,LEN(A477) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C477">
@@ -22843,7 +22846,7 @@
         <v>18</v>
       </c>
       <c r="B478" s="1" t="str">
-        <f>MID(A478,33,LEN(A478) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C478">
@@ -22861,7 +22864,7 @@
         <v>18</v>
       </c>
       <c r="B479" s="1" t="str">
-        <f>MID(A479,33,LEN(A479) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C479">
@@ -22879,7 +22882,7 @@
         <v>18</v>
       </c>
       <c r="B480" s="1" t="str">
-        <f>MID(A480,33,LEN(A480) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C480">
@@ -22897,7 +22900,7 @@
         <v>18</v>
       </c>
       <c r="B481" s="1" t="str">
-        <f>MID(A481,33,LEN(A481) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C481">
@@ -22915,7 +22918,7 @@
         <v>18</v>
       </c>
       <c r="B482" s="1" t="str">
-        <f>MID(A482,33,LEN(A482) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C482">
@@ -22933,7 +22936,7 @@
         <v>18</v>
       </c>
       <c r="B483" s="1" t="str">
-        <f>MID(A483,33,LEN(A483) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C483">
@@ -22951,7 +22954,7 @@
         <v>18</v>
       </c>
       <c r="B484" s="1" t="str">
-        <f>MID(A484,33,LEN(A484) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C484">
@@ -22969,7 +22972,7 @@
         <v>18</v>
       </c>
       <c r="B485" s="1" t="str">
-        <f>MID(A485,33,LEN(A485) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C485">
@@ -22987,7 +22990,7 @@
         <v>18</v>
       </c>
       <c r="B486" s="1" t="str">
-        <f>MID(A486,33,LEN(A486) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C486">
@@ -23005,7 +23008,7 @@
         <v>18</v>
       </c>
       <c r="B487" s="1" t="str">
-        <f>MID(A487,33,LEN(A487) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C487">
@@ -23023,7 +23026,7 @@
         <v>18</v>
       </c>
       <c r="B488" s="1" t="str">
-        <f>MID(A488,33,LEN(A488) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C488">
@@ -23041,7 +23044,7 @@
         <v>18</v>
       </c>
       <c r="B489" s="1" t="str">
-        <f>MID(A489,33,LEN(A489) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C489">
@@ -23059,7 +23062,7 @@
         <v>18</v>
       </c>
       <c r="B490" s="1" t="str">
-        <f>MID(A490,33,LEN(A490) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C490">
@@ -23077,7 +23080,7 @@
         <v>18</v>
       </c>
       <c r="B491" s="1" t="str">
-        <f>MID(A491,33,LEN(A491) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C491">
@@ -23095,7 +23098,7 @@
         <v>18</v>
       </c>
       <c r="B492" s="1" t="str">
-        <f>MID(A492,33,LEN(A492) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C492">
@@ -23113,7 +23116,7 @@
         <v>18</v>
       </c>
       <c r="B493" s="1" t="str">
-        <f>MID(A493,33,LEN(A493) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C493">
@@ -23131,7 +23134,7 @@
         <v>18</v>
       </c>
       <c r="B494" s="1" t="str">
-        <f>MID(A494,33,LEN(A494) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C494">
@@ -23149,7 +23152,7 @@
         <v>18</v>
       </c>
       <c r="B495" s="1" t="str">
-        <f>MID(A495,33,LEN(A495) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C495">
@@ -23167,7 +23170,7 @@
         <v>18</v>
       </c>
       <c r="B496" s="1" t="str">
-        <f>MID(A496,33,LEN(A496) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C496">
@@ -23185,7 +23188,7 @@
         <v>18</v>
       </c>
       <c r="B497" s="1" t="str">
-        <f>MID(A497,33,LEN(A497) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C497">
@@ -23203,7 +23206,7 @@
         <v>18</v>
       </c>
       <c r="B498" s="1" t="str">
-        <f>MID(A498,33,LEN(A498) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C498">
@@ -23221,7 +23224,7 @@
         <v>18</v>
       </c>
       <c r="B499" s="1" t="str">
-        <f>MID(A499,33,LEN(A499) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C499">
@@ -23239,7 +23242,7 @@
         <v>18</v>
       </c>
       <c r="B500" s="1" t="str">
-        <f>MID(A500,33,LEN(A500) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C500">
@@ -23257,7 +23260,7 @@
         <v>18</v>
       </c>
       <c r="B501" s="1" t="str">
-        <f>MID(A501,33,LEN(A501) - 36)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="C501">
@@ -23275,7 +23278,7 @@
         <v>19</v>
       </c>
       <c r="B502" s="1" t="str">
-        <f>MID(A502,33,LEN(A502) - 36)</f>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="C502" s="1">
@@ -23293,7 +23296,7 @@
         <v>19</v>
       </c>
       <c r="B503" s="1" t="str">
-        <f>MID(A503,33,LEN(A503) - 36)</f>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="C503" s="1">
@@ -23311,7 +23314,7 @@
         <v>19</v>
       </c>
       <c r="B504" s="1" t="str">
-        <f>MID(A504,33,LEN(A504) - 36)</f>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="C504" s="1">
@@ -23329,7 +23332,7 @@
         <v>19</v>
       </c>
       <c r="B505" s="1" t="str">
-        <f>MID(A505,33,LEN(A505) - 36)</f>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="C505" s="1">
@@ -23347,7 +23350,7 @@
         <v>19</v>
       </c>
       <c r="B506" s="1" t="str">
-        <f>MID(A506,33,LEN(A506) - 36)</f>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="C506" s="1">
@@ -23365,7 +23368,7 @@
         <v>19</v>
       </c>
       <c r="B507" s="1" t="str">
-        <f>MID(A507,33,LEN(A507) - 36)</f>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="C507" s="1">
@@ -23383,7 +23386,7 @@
         <v>19</v>
       </c>
       <c r="B508" s="1" t="str">
-        <f>MID(A508,33,LEN(A508) - 36)</f>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="C508" s="1">
@@ -23401,7 +23404,7 @@
         <v>19</v>
       </c>
       <c r="B509" s="1" t="str">
-        <f>MID(A509,33,LEN(A509) - 36)</f>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="C509" s="1">
@@ -23419,7 +23422,7 @@
         <v>19</v>
       </c>
       <c r="B510" s="1" t="str">
-        <f>MID(A510,33,LEN(A510) - 36)</f>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="C510" s="1">
@@ -23437,7 +23440,7 @@
         <v>19</v>
       </c>
       <c r="B511" s="1" t="str">
-        <f>MID(A511,33,LEN(A511) - 36)</f>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="C511" s="1">
@@ -23455,7 +23458,7 @@
         <v>19</v>
       </c>
       <c r="B512" s="1" t="str">
-        <f>MID(A512,33,LEN(A512) - 36)</f>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="C512" s="1">
@@ -23473,7 +23476,7 @@
         <v>19</v>
       </c>
       <c r="B513" s="1" t="str">
-        <f>MID(A513,33,LEN(A513) - 36)</f>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="C513" s="1">
@@ -23491,7 +23494,7 @@
         <v>19</v>
       </c>
       <c r="B514" s="1" t="str">
-        <f>MID(A514,33,LEN(A514) - 36)</f>
+        <f t="shared" ref="B514:B577" si="19">MID(A514,33,LEN(A514) - 36)</f>
         <v>5</v>
       </c>
       <c r="C514" s="1">
@@ -23509,7 +23512,7 @@
         <v>19</v>
       </c>
       <c r="B515" s="1" t="str">
-        <f>MID(A515,33,LEN(A515) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C515" s="1">
@@ -23527,7 +23530,7 @@
         <v>19</v>
       </c>
       <c r="B516" s="1" t="str">
-        <f>MID(A516,33,LEN(A516) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C516" s="1">
@@ -23545,7 +23548,7 @@
         <v>19</v>
       </c>
       <c r="B517" s="1" t="str">
-        <f>MID(A517,33,LEN(A517) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C517" s="1">
@@ -23563,7 +23566,7 @@
         <v>19</v>
       </c>
       <c r="B518" s="1" t="str">
-        <f>MID(A518,33,LEN(A518) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C518" s="1">
@@ -23581,7 +23584,7 @@
         <v>19</v>
       </c>
       <c r="B519" s="1" t="str">
-        <f>MID(A519,33,LEN(A519) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C519" s="1">
@@ -23599,7 +23602,7 @@
         <v>19</v>
       </c>
       <c r="B520" s="1" t="str">
-        <f>MID(A520,33,LEN(A520) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C520" s="1">
@@ -23617,7 +23620,7 @@
         <v>19</v>
       </c>
       <c r="B521" s="1" t="str">
-        <f>MID(A521,33,LEN(A521) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C521" s="1">
@@ -23635,7 +23638,7 @@
         <v>19</v>
       </c>
       <c r="B522" s="1" t="str">
-        <f>MID(A522,33,LEN(A522) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C522" s="1">
@@ -23653,7 +23656,7 @@
         <v>19</v>
       </c>
       <c r="B523" s="1" t="str">
-        <f>MID(A523,33,LEN(A523) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C523" s="1">
@@ -23671,7 +23674,7 @@
         <v>19</v>
       </c>
       <c r="B524" s="1" t="str">
-        <f>MID(A524,33,LEN(A524) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C524" s="1">
@@ -23689,7 +23692,7 @@
         <v>19</v>
       </c>
       <c r="B525" s="1" t="str">
-        <f>MID(A525,33,LEN(A525) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C525" s="1">
@@ -23707,7 +23710,7 @@
         <v>19</v>
       </c>
       <c r="B526" s="1" t="str">
-        <f>MID(A526,33,LEN(A526) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C526" s="1">
@@ -23725,7 +23728,7 @@
         <v>19</v>
       </c>
       <c r="B527" s="1" t="str">
-        <f>MID(A527,33,LEN(A527) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C527" s="1">
@@ -23743,7 +23746,7 @@
         <v>19</v>
       </c>
       <c r="B528" s="1" t="str">
-        <f>MID(A528,33,LEN(A528) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C528" s="1">
@@ -23761,7 +23764,7 @@
         <v>19</v>
       </c>
       <c r="B529" s="1" t="str">
-        <f>MID(A529,33,LEN(A529) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C529" s="1">
@@ -23779,7 +23782,7 @@
         <v>19</v>
       </c>
       <c r="B530" s="1" t="str">
-        <f>MID(A530,33,LEN(A530) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C530" s="1">
@@ -23797,7 +23800,7 @@
         <v>19</v>
       </c>
       <c r="B531" s="1" t="str">
-        <f>MID(A531,33,LEN(A531) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C531" s="1">
@@ -23815,7 +23818,7 @@
         <v>19</v>
       </c>
       <c r="B532" s="1" t="str">
-        <f>MID(A532,33,LEN(A532) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C532" s="1">
@@ -23833,7 +23836,7 @@
         <v>19</v>
       </c>
       <c r="B533" s="1" t="str">
-        <f>MID(A533,33,LEN(A533) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C533" s="1">
@@ -23851,7 +23854,7 @@
         <v>19</v>
       </c>
       <c r="B534" s="1" t="str">
-        <f>MID(A534,33,LEN(A534) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C534" s="1">
@@ -23869,7 +23872,7 @@
         <v>19</v>
       </c>
       <c r="B535" s="1" t="str">
-        <f>MID(A535,33,LEN(A535) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C535" s="1">
@@ -23887,7 +23890,7 @@
         <v>19</v>
       </c>
       <c r="B536" s="1" t="str">
-        <f>MID(A536,33,LEN(A536) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C536" s="1">
@@ -23905,7 +23908,7 @@
         <v>19</v>
       </c>
       <c r="B537" s="1" t="str">
-        <f>MID(A537,33,LEN(A537) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C537" s="1">
@@ -23923,7 +23926,7 @@
         <v>19</v>
       </c>
       <c r="B538" s="1" t="str">
-        <f>MID(A538,33,LEN(A538) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C538" s="1">
@@ -23941,7 +23944,7 @@
         <v>19</v>
       </c>
       <c r="B539" s="1" t="str">
-        <f>MID(A539,33,LEN(A539) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C539" s="1">
@@ -23959,7 +23962,7 @@
         <v>19</v>
       </c>
       <c r="B540" s="1" t="str">
-        <f>MID(A540,33,LEN(A540) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C540" s="1">
@@ -23977,7 +23980,7 @@
         <v>19</v>
       </c>
       <c r="B541" s="1" t="str">
-        <f>MID(A541,33,LEN(A541) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C541" s="1">
@@ -23995,7 +23998,7 @@
         <v>19</v>
       </c>
       <c r="B542" s="1" t="str">
-        <f>MID(A542,33,LEN(A542) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C542" s="1">
@@ -24013,7 +24016,7 @@
         <v>19</v>
       </c>
       <c r="B543" s="1" t="str">
-        <f>MID(A543,33,LEN(A543) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C543" s="1">
@@ -24031,7 +24034,7 @@
         <v>19</v>
       </c>
       <c r="B544" s="1" t="str">
-        <f>MID(A544,33,LEN(A544) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C544">
@@ -24049,7 +24052,7 @@
         <v>19</v>
       </c>
       <c r="B545" s="1" t="str">
-        <f>MID(A545,33,LEN(A545) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C545">
@@ -24067,7 +24070,7 @@
         <v>19</v>
       </c>
       <c r="B546" s="1" t="str">
-        <f>MID(A546,33,LEN(A546) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C546">
@@ -24085,7 +24088,7 @@
         <v>19</v>
       </c>
       <c r="B547" s="1" t="str">
-        <f>MID(A547,33,LEN(A547) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C547">
@@ -24103,7 +24106,7 @@
         <v>19</v>
       </c>
       <c r="B548" s="1" t="str">
-        <f>MID(A548,33,LEN(A548) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C548">
@@ -24121,7 +24124,7 @@
         <v>19</v>
       </c>
       <c r="B549" s="1" t="str">
-        <f>MID(A549,33,LEN(A549) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C549">
@@ -24139,7 +24142,7 @@
         <v>19</v>
       </c>
       <c r="B550" s="1" t="str">
-        <f>MID(A550,33,LEN(A550) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C550">
@@ -24157,7 +24160,7 @@
         <v>19</v>
       </c>
       <c r="B551" s="1" t="str">
-        <f>MID(A551,33,LEN(A551) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C551">
@@ -24175,7 +24178,7 @@
         <v>19</v>
       </c>
       <c r="B552" s="1" t="str">
-        <f>MID(A552,33,LEN(A552) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C552">
@@ -24193,7 +24196,7 @@
         <v>19</v>
       </c>
       <c r="B553" s="1" t="str">
-        <f>MID(A553,33,LEN(A553) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C553">
@@ -24211,7 +24214,7 @@
         <v>19</v>
       </c>
       <c r="B554" s="1" t="str">
-        <f>MID(A554,33,LEN(A554) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C554">
@@ -24229,7 +24232,7 @@
         <v>19</v>
       </c>
       <c r="B555" s="1" t="str">
-        <f>MID(A555,33,LEN(A555) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C555">
@@ -24247,7 +24250,7 @@
         <v>19</v>
       </c>
       <c r="B556" s="1" t="str">
-        <f>MID(A556,33,LEN(A556) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C556">
@@ -24265,7 +24268,7 @@
         <v>19</v>
       </c>
       <c r="B557" s="1" t="str">
-        <f>MID(A557,33,LEN(A557) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C557">
@@ -24283,7 +24286,7 @@
         <v>19</v>
       </c>
       <c r="B558" s="1" t="str">
-        <f>MID(A558,33,LEN(A558) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C558">
@@ -24301,7 +24304,7 @@
         <v>19</v>
       </c>
       <c r="B559" s="1" t="str">
-        <f>MID(A559,33,LEN(A559) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C559">
@@ -24319,7 +24322,7 @@
         <v>19</v>
       </c>
       <c r="B560" s="1" t="str">
-        <f>MID(A560,33,LEN(A560) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C560">
@@ -24337,7 +24340,7 @@
         <v>19</v>
       </c>
       <c r="B561" s="1" t="str">
-        <f>MID(A561,33,LEN(A561) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C561">
@@ -24355,7 +24358,7 @@
         <v>19</v>
       </c>
       <c r="B562" s="1" t="str">
-        <f>MID(A562,33,LEN(A562) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C562">
@@ -24373,7 +24376,7 @@
         <v>19</v>
       </c>
       <c r="B563" s="1" t="str">
-        <f>MID(A563,33,LEN(A563) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C563">
@@ -24391,7 +24394,7 @@
         <v>19</v>
       </c>
       <c r="B564" s="1" t="str">
-        <f>MID(A564,33,LEN(A564) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C564">
@@ -24409,7 +24412,7 @@
         <v>19</v>
       </c>
       <c r="B565" s="1" t="str">
-        <f>MID(A565,33,LEN(A565) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C565">
@@ -24427,7 +24430,7 @@
         <v>19</v>
       </c>
       <c r="B566" s="1" t="str">
-        <f>MID(A566,33,LEN(A566) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C566">
@@ -24445,7 +24448,7 @@
         <v>19</v>
       </c>
       <c r="B567" s="1" t="str">
-        <f>MID(A567,33,LEN(A567) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C567">
@@ -24463,7 +24466,7 @@
         <v>19</v>
       </c>
       <c r="B568" s="1" t="str">
-        <f>MID(A568,33,LEN(A568) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C568">
@@ -24481,7 +24484,7 @@
         <v>19</v>
       </c>
       <c r="B569" s="1" t="str">
-        <f>MID(A569,33,LEN(A569) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C569">
@@ -24499,7 +24502,7 @@
         <v>19</v>
       </c>
       <c r="B570" s="1" t="str">
-        <f>MID(A570,33,LEN(A570) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C570">
@@ -24517,7 +24520,7 @@
         <v>19</v>
       </c>
       <c r="B571" s="1" t="str">
-        <f>MID(A571,33,LEN(A571) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C571">
@@ -24535,7 +24538,7 @@
         <v>19</v>
       </c>
       <c r="B572" s="1" t="str">
-        <f>MID(A572,33,LEN(A572) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C572">
@@ -24553,7 +24556,7 @@
         <v>19</v>
       </c>
       <c r="B573" s="1" t="str">
-        <f>MID(A573,33,LEN(A573) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C573">
@@ -24571,7 +24574,7 @@
         <v>19</v>
       </c>
       <c r="B574" s="1" t="str">
-        <f>MID(A574,33,LEN(A574) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C574">
@@ -24589,7 +24592,7 @@
         <v>19</v>
       </c>
       <c r="B575" s="1" t="str">
-        <f>MID(A575,33,LEN(A575) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C575">
@@ -24607,7 +24610,7 @@
         <v>19</v>
       </c>
       <c r="B576" s="1" t="str">
-        <f>MID(A576,33,LEN(A576) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C576">
@@ -24625,7 +24628,7 @@
         <v>19</v>
       </c>
       <c r="B577" s="1" t="str">
-        <f>MID(A577,33,LEN(A577) - 36)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="C577">
@@ -24643,7 +24646,7 @@
         <v>19</v>
       </c>
       <c r="B578" s="1" t="str">
-        <f>MID(A578,33,LEN(A578) - 36)</f>
+        <f t="shared" ref="B578:B641" si="20">MID(A578,33,LEN(A578) - 36)</f>
         <v>5</v>
       </c>
       <c r="C578">
@@ -24661,7 +24664,7 @@
         <v>19</v>
       </c>
       <c r="B579" s="1" t="str">
-        <f>MID(A579,33,LEN(A579) - 36)</f>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="C579">
@@ -24679,7 +24682,7 @@
         <v>19</v>
       </c>
       <c r="B580" s="1" t="str">
-        <f>MID(A580,33,LEN(A580) - 36)</f>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="C580">
@@ -24697,7 +24700,7 @@
         <v>19</v>
       </c>
       <c r="B581" s="1" t="str">
-        <f>MID(A581,33,LEN(A581) - 36)</f>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="C581">
@@ -24715,7 +24718,7 @@
         <v>19</v>
       </c>
       <c r="B582" s="1" t="str">
-        <f>MID(A582,33,LEN(A582) - 36)</f>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="C582">
@@ -24733,7 +24736,7 @@
         <v>19</v>
       </c>
       <c r="B583" s="1" t="str">
-        <f>MID(A583,33,LEN(A583) - 36)</f>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="C583">
@@ -24751,7 +24754,7 @@
         <v>19</v>
       </c>
       <c r="B584" s="1" t="str">
-        <f>MID(A584,33,LEN(A584) - 36)</f>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="C584">
@@ -24769,7 +24772,7 @@
         <v>19</v>
       </c>
       <c r="B585" s="1" t="str">
-        <f>MID(A585,33,LEN(A585) - 36)</f>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="C585">
@@ -24787,7 +24790,7 @@
         <v>19</v>
       </c>
       <c r="B586" s="1" t="str">
-        <f>MID(A586,33,LEN(A586) - 36)</f>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="C586">
@@ -24805,7 +24808,7 @@
         <v>19</v>
       </c>
       <c r="B587" s="1" t="str">
-        <f>MID(A587,33,LEN(A587) - 36)</f>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="C587">
@@ -24823,7 +24826,7 @@
         <v>19</v>
       </c>
       <c r="B588" s="1" t="str">
-        <f>MID(A588,33,LEN(A588) - 36)</f>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="C588">
@@ -24841,7 +24844,7 @@
         <v>19</v>
       </c>
       <c r="B589" s="1" t="str">
-        <f>MID(A589,33,LEN(A589) - 36)</f>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="C589">
@@ -24859,7 +24862,7 @@
         <v>19</v>
       </c>
       <c r="B590" s="1" t="str">
-        <f>MID(A590,33,LEN(A590) - 36)</f>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="C590">
@@ -24877,7 +24880,7 @@
         <v>19</v>
       </c>
       <c r="B591" s="1" t="str">
-        <f>MID(A591,33,LEN(A591) - 36)</f>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="C591">
@@ -24895,7 +24898,7 @@
         <v>19</v>
       </c>
       <c r="B592" s="1" t="str">
-        <f>MID(A592,33,LEN(A592) - 36)</f>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="C592">
@@ -24913,7 +24916,7 @@
         <v>19</v>
       </c>
       <c r="B593" s="1" t="str">
-        <f>MID(A593,33,LEN(A593) - 36)</f>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="C593">
@@ -24931,7 +24934,7 @@
         <v>19</v>
       </c>
       <c r="B594" s="1" t="str">
-        <f>MID(A594,33,LEN(A594) - 36)</f>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="C594">
@@ -24949,7 +24952,7 @@
         <v>19</v>
       </c>
       <c r="B595" s="1" t="str">
-        <f>MID(A595,33,LEN(A595) - 36)</f>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="C595">
@@ -24967,7 +24970,7 @@
         <v>19</v>
       </c>
       <c r="B596" s="1" t="str">
-        <f>MID(A596,33,LEN(A596) - 36)</f>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="C596">
@@ -24985,7 +24988,7 @@
         <v>19</v>
       </c>
       <c r="B597" s="1" t="str">
-        <f>MID(A597,33,LEN(A597) - 36)</f>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="C597">
@@ -25003,7 +25006,7 @@
         <v>19</v>
       </c>
       <c r="B598" s="1" t="str">
-        <f>MID(A598,33,LEN(A598) - 36)</f>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="C598">
@@ -25021,7 +25024,7 @@
         <v>19</v>
       </c>
       <c r="B599" s="1" t="str">
-        <f>MID(A599,33,LEN(A599) - 36)</f>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="C599">
@@ -25039,7 +25042,7 @@
         <v>19</v>
       </c>
       <c r="B600" s="1" t="str">
-        <f>MID(A600,33,LEN(A600) - 36)</f>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="C600">
@@ -25057,7 +25060,7 @@
         <v>19</v>
       </c>
       <c r="B601" s="1" t="str">
-        <f>MID(A601,33,LEN(A601) - 36)</f>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="C601">
@@ -25075,7 +25078,7 @@
         <v>21</v>
       </c>
       <c r="B602" s="1" t="str">
-        <f>MID(A602,33,LEN(A602) - 36)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="C602" s="1">
@@ -25093,7 +25096,7 @@
         <v>21</v>
       </c>
       <c r="B603" s="1" t="str">
-        <f>MID(A603,33,LEN(A603) - 36)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="C603" s="1">
@@ -25111,7 +25114,7 @@
         <v>21</v>
       </c>
       <c r="B604" s="1" t="str">
-        <f>MID(A604,33,LEN(A604) - 36)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="C604" s="1">
@@ -25129,7 +25132,7 @@
         <v>21</v>
       </c>
       <c r="B605" s="1" t="str">
-        <f>MID(A605,33,LEN(A605) - 36)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="C605" s="1">
@@ -25147,7 +25150,7 @@
         <v>21</v>
       </c>
       <c r="B606" s="1" t="str">
-        <f>MID(A606,33,LEN(A606) - 36)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="C606" s="1">
@@ -25165,7 +25168,7 @@
         <v>21</v>
       </c>
       <c r="B607" s="1" t="str">
-        <f>MID(A607,33,LEN(A607) - 36)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="C607" s="1">
@@ -25183,7 +25186,7 @@
         <v>21</v>
       </c>
       <c r="B608" s="1" t="str">
-        <f>MID(A608,33,LEN(A608) - 36)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="C608" s="1">
@@ -25201,7 +25204,7 @@
         <v>21</v>
       </c>
       <c r="B609" s="1" t="str">
-        <f>MID(A609,33,LEN(A609) - 36)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="C609" s="1">
@@ -25219,7 +25222,7 @@
         <v>21</v>
       </c>
       <c r="B610" s="1" t="str">
-        <f>MID(A610,33,LEN(A610) - 36)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="C610" s="1">
@@ -25237,7 +25240,7 @@
         <v>21</v>
       </c>
       <c r="B611" s="1" t="str">
-        <f>MID(A611,33,LEN(A611) - 36)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="C611" s="1">
@@ -25255,7 +25258,7 @@
         <v>21</v>
       </c>
       <c r="B612" s="1" t="str">
-        <f>MID(A612,33,LEN(A612) - 36)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="C612" s="1">
@@ -25273,7 +25276,7 @@
         <v>21</v>
       </c>
       <c r="B613" s="1" t="str">
-        <f>MID(A613,33,LEN(A613) - 36)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="C613" s="1">
@@ -25291,7 +25294,7 @@
         <v>21</v>
       </c>
       <c r="B614" s="1" t="str">
-        <f>MID(A614,33,LEN(A614) - 36)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="C614" s="1">
@@ -25309,7 +25312,7 @@
         <v>21</v>
       </c>
       <c r="B615" s="1" t="str">
-        <f>MID(A615,33,LEN(A615) - 36)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="C615" s="1">
@@ -25327,7 +25330,7 @@
         <v>21</v>
       </c>
       <c r="B616" s="1" t="str">
-        <f>MID(A616,33,LEN(A616) - 36)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="C616" s="1">
@@ -25345,7 +25348,7 @@
         <v>21</v>
       </c>
       <c r="B617" s="1" t="str">
-        <f>MID(A617,33,LEN(A617) - 36)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="C617" s="1">
@@ -25363,7 +25366,7 @@
         <v>21</v>
       </c>
       <c r="B618" s="1" t="str">
-        <f>MID(A618,33,LEN(A618) - 36)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="C618" s="1">
@@ -25381,7 +25384,7 @@
         <v>21</v>
       </c>
       <c r="B619" s="1" t="str">
-        <f>MID(A619,33,LEN(A619) - 36)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="C619" s="1">
@@ -25399,7 +25402,7 @@
         <v>21</v>
       </c>
       <c r="B620" s="1" t="str">
-        <f>MID(A620,33,LEN(A620) - 36)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="C620" s="1">
@@ -25417,7 +25420,7 @@
         <v>21</v>
       </c>
       <c r="B621" s="1" t="str">
-        <f>MID(A621,33,LEN(A621) - 36)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="C621" s="1">
@@ -25435,7 +25438,7 @@
         <v>21</v>
       </c>
       <c r="B622" s="1" t="str">
-        <f>MID(A622,33,LEN(A622) - 36)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="C622" s="1">
@@ -25453,7 +25456,7 @@
         <v>21</v>
       </c>
       <c r="B623" s="1" t="str">
-        <f>MID(A623,33,LEN(A623) - 36)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="C623" s="1">
@@ -25471,7 +25474,7 @@
         <v>21</v>
       </c>
       <c r="B624" s="1" t="str">
-        <f>MID(A624,33,LEN(A624) - 36)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="C624" s="1">
@@ -25489,7 +25492,7 @@
         <v>21</v>
       </c>
       <c r="B625" s="1" t="str">
-        <f>MID(A625,33,LEN(A625) - 36)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="C625" s="1">
@@ -25507,7 +25510,7 @@
         <v>21</v>
       </c>
       <c r="B626" s="1" t="str">
-        <f>MID(A626,33,LEN(A626) - 36)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="C626" s="1">
@@ -25525,7 +25528,7 @@
         <v>21</v>
       </c>
       <c r="B627" s="1" t="str">
-        <f>MID(A627,33,LEN(A627) - 36)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="C627" s="1">
@@ -25543,7 +25546,7 @@
         <v>21</v>
       </c>
       <c r="B628" s="1" t="str">
-        <f>MID(A628,33,LEN(A628) - 36)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="C628" s="1">
@@ -25561,7 +25564,7 @@
         <v>21</v>
       </c>
       <c r="B629" s="1" t="str">
-        <f>MID(A629,33,LEN(A629) - 36)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="C629" s="1">
@@ -25579,7 +25582,7 @@
         <v>21</v>
       </c>
       <c r="B630" s="1" t="str">
-        <f>MID(A630,33,LEN(A630) - 36)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="C630" s="1">
@@ -25597,7 +25600,7 @@
         <v>21</v>
       </c>
       <c r="B631" s="1" t="str">
-        <f>MID(A631,33,LEN(A631) - 36)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="C631" s="1">
@@ -25615,7 +25618,7 @@
         <v>21</v>
       </c>
       <c r="B632" s="1" t="str">
-        <f>MID(A632,33,LEN(A632) - 36)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="C632" s="1">
@@ -25633,7 +25636,7 @@
         <v>21</v>
       </c>
       <c r="B633" s="1" t="str">
-        <f>MID(A633,33,LEN(A633) - 36)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="C633" s="1">
@@ -25651,7 +25654,7 @@
         <v>21</v>
       </c>
       <c r="B634" s="1" t="str">
-        <f>MID(A634,33,LEN(A634) - 36)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="C634" s="1">
@@ -25669,7 +25672,7 @@
         <v>21</v>
       </c>
       <c r="B635" s="1" t="str">
-        <f>MID(A635,33,LEN(A635) - 36)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="C635" s="1">
@@ -25687,7 +25690,7 @@
         <v>21</v>
       </c>
       <c r="B636" s="1" t="str">
-        <f>MID(A636,33,LEN(A636) - 36)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="C636" s="1">
@@ -25705,7 +25708,7 @@
         <v>21</v>
       </c>
       <c r="B637" s="1" t="str">
-        <f>MID(A637,33,LEN(A637) - 36)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="C637" s="1">
@@ -25723,7 +25726,7 @@
         <v>21</v>
       </c>
       <c r="B638" s="1" t="str">
-        <f>MID(A638,33,LEN(A638) - 36)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="C638" s="1">
@@ -25741,7 +25744,7 @@
         <v>21</v>
       </c>
       <c r="B639" s="1" t="str">
-        <f>MID(A639,33,LEN(A639) - 36)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="C639" s="1">
@@ -25759,7 +25762,7 @@
         <v>21</v>
       </c>
       <c r="B640" s="1" t="str">
-        <f>MID(A640,33,LEN(A640) - 36)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="C640" s="1">
@@ -25777,7 +25780,7 @@
         <v>21</v>
       </c>
       <c r="B641" s="1" t="str">
-        <f>MID(A641,33,LEN(A641) - 36)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="C641" s="1">
@@ -25795,7 +25798,7 @@
         <v>21</v>
       </c>
       <c r="B642" s="1" t="str">
-        <f>MID(A642,33,LEN(A642) - 36)</f>
+        <f t="shared" ref="B642:B705" si="21">MID(A642,33,LEN(A642) - 36)</f>
         <v>6</v>
       </c>
       <c r="C642" s="1">
@@ -25813,7 +25816,7 @@
         <v>21</v>
       </c>
       <c r="B643" s="1" t="str">
-        <f>MID(A643,33,LEN(A643) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C643" s="1">
@@ -25831,7 +25834,7 @@
         <v>21</v>
       </c>
       <c r="B644" s="1" t="str">
-        <f>MID(A644,33,LEN(A644) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C644">
@@ -25849,7 +25852,7 @@
         <v>21</v>
       </c>
       <c r="B645" s="1" t="str">
-        <f>MID(A645,33,LEN(A645) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C645">
@@ -25867,7 +25870,7 @@
         <v>21</v>
       </c>
       <c r="B646" s="1" t="str">
-        <f>MID(A646,33,LEN(A646) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C646">
@@ -25885,7 +25888,7 @@
         <v>21</v>
       </c>
       <c r="B647" s="1" t="str">
-        <f>MID(A647,33,LEN(A647) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C647">
@@ -25903,7 +25906,7 @@
         <v>21</v>
       </c>
       <c r="B648" s="1" t="str">
-        <f>MID(A648,33,LEN(A648) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C648">
@@ -25921,7 +25924,7 @@
         <v>21</v>
       </c>
       <c r="B649" s="1" t="str">
-        <f>MID(A649,33,LEN(A649) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C649">
@@ -25939,7 +25942,7 @@
         <v>21</v>
       </c>
       <c r="B650" s="1" t="str">
-        <f>MID(A650,33,LEN(A650) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C650">
@@ -25957,7 +25960,7 @@
         <v>21</v>
       </c>
       <c r="B651" s="1" t="str">
-        <f>MID(A651,33,LEN(A651) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C651">
@@ -25975,7 +25978,7 @@
         <v>21</v>
       </c>
       <c r="B652" s="1" t="str">
-        <f>MID(A652,33,LEN(A652) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C652">
@@ -25993,7 +25996,7 @@
         <v>21</v>
       </c>
       <c r="B653" s="1" t="str">
-        <f>MID(A653,33,LEN(A653) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C653">
@@ -26011,7 +26014,7 @@
         <v>21</v>
       </c>
       <c r="B654" s="1" t="str">
-        <f>MID(A654,33,LEN(A654) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C654">
@@ -26029,7 +26032,7 @@
         <v>21</v>
       </c>
       <c r="B655" s="1" t="str">
-        <f>MID(A655,33,LEN(A655) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C655">
@@ -26047,7 +26050,7 @@
         <v>21</v>
       </c>
       <c r="B656" s="1" t="str">
-        <f>MID(A656,33,LEN(A656) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C656">
@@ -26065,7 +26068,7 @@
         <v>21</v>
       </c>
       <c r="B657" s="1" t="str">
-        <f>MID(A657,33,LEN(A657) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C657">
@@ -26083,7 +26086,7 @@
         <v>21</v>
       </c>
       <c r="B658" s="1" t="str">
-        <f>MID(A658,33,LEN(A658) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C658">
@@ -26101,7 +26104,7 @@
         <v>21</v>
       </c>
       <c r="B659" s="1" t="str">
-        <f>MID(A659,33,LEN(A659) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C659">
@@ -26119,7 +26122,7 @@
         <v>21</v>
       </c>
       <c r="B660" s="1" t="str">
-        <f>MID(A660,33,LEN(A660) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C660">
@@ -26137,7 +26140,7 @@
         <v>21</v>
       </c>
       <c r="B661" s="1" t="str">
-        <f>MID(A661,33,LEN(A661) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C661">
@@ -26155,7 +26158,7 @@
         <v>21</v>
       </c>
       <c r="B662" s="1" t="str">
-        <f>MID(A662,33,LEN(A662) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C662">
@@ -26173,7 +26176,7 @@
         <v>21</v>
       </c>
       <c r="B663" s="1" t="str">
-        <f>MID(A663,33,LEN(A663) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C663">
@@ -26191,7 +26194,7 @@
         <v>21</v>
       </c>
       <c r="B664" s="1" t="str">
-        <f>MID(A664,33,LEN(A664) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C664">
@@ -26209,7 +26212,7 @@
         <v>21</v>
       </c>
       <c r="B665" s="1" t="str">
-        <f>MID(A665,33,LEN(A665) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C665">
@@ -26227,7 +26230,7 @@
         <v>21</v>
       </c>
       <c r="B666" s="1" t="str">
-        <f>MID(A666,33,LEN(A666) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C666">
@@ -26245,7 +26248,7 @@
         <v>21</v>
       </c>
       <c r="B667" s="1" t="str">
-        <f>MID(A667,33,LEN(A667) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C667">
@@ -26263,7 +26266,7 @@
         <v>21</v>
       </c>
       <c r="B668" s="1" t="str">
-        <f>MID(A668,33,LEN(A668) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C668">
@@ -26281,7 +26284,7 @@
         <v>21</v>
       </c>
       <c r="B669" s="1" t="str">
-        <f>MID(A669,33,LEN(A669) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C669">
@@ -26299,7 +26302,7 @@
         <v>21</v>
       </c>
       <c r="B670" s="1" t="str">
-        <f>MID(A670,33,LEN(A670) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C670">
@@ -26317,7 +26320,7 @@
         <v>21</v>
       </c>
       <c r="B671" s="1" t="str">
-        <f>MID(A671,33,LEN(A671) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C671">
@@ -26335,7 +26338,7 @@
         <v>21</v>
       </c>
       <c r="B672" s="1" t="str">
-        <f>MID(A672,33,LEN(A672) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C672">
@@ -26353,7 +26356,7 @@
         <v>21</v>
       </c>
       <c r="B673" s="1" t="str">
-        <f>MID(A673,33,LEN(A673) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C673">
@@ -26371,7 +26374,7 @@
         <v>21</v>
       </c>
       <c r="B674" s="1" t="str">
-        <f>MID(A674,33,LEN(A674) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C674">
@@ -26389,7 +26392,7 @@
         <v>21</v>
       </c>
       <c r="B675" s="1" t="str">
-        <f>MID(A675,33,LEN(A675) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C675">
@@ -26407,7 +26410,7 @@
         <v>21</v>
       </c>
       <c r="B676" s="1" t="str">
-        <f>MID(A676,33,LEN(A676) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C676">
@@ -26425,7 +26428,7 @@
         <v>21</v>
       </c>
       <c r="B677" s="1" t="str">
-        <f>MID(A677,33,LEN(A677) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C677">
@@ -26443,7 +26446,7 @@
         <v>21</v>
       </c>
       <c r="B678" s="1" t="str">
-        <f>MID(A678,33,LEN(A678) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C678">
@@ -26461,7 +26464,7 @@
         <v>21</v>
       </c>
       <c r="B679" s="1" t="str">
-        <f>MID(A679,33,LEN(A679) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C679">
@@ -26479,7 +26482,7 @@
         <v>21</v>
       </c>
       <c r="B680" s="1" t="str">
-        <f>MID(A680,33,LEN(A680) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C680">
@@ -26497,7 +26500,7 @@
         <v>21</v>
       </c>
       <c r="B681" s="1" t="str">
-        <f>MID(A681,33,LEN(A681) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C681">
@@ -26515,7 +26518,7 @@
         <v>21</v>
       </c>
       <c r="B682" s="1" t="str">
-        <f>MID(A682,33,LEN(A682) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C682">
@@ -26533,7 +26536,7 @@
         <v>21</v>
       </c>
       <c r="B683" s="1" t="str">
-        <f>MID(A683,33,LEN(A683) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C683">
@@ -26551,7 +26554,7 @@
         <v>21</v>
       </c>
       <c r="B684" s="1" t="str">
-        <f>MID(A684,33,LEN(A684) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C684">
@@ -26569,7 +26572,7 @@
         <v>21</v>
       </c>
       <c r="B685" s="1" t="str">
-        <f>MID(A685,33,LEN(A685) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C685">
@@ -26587,7 +26590,7 @@
         <v>21</v>
       </c>
       <c r="B686" s="1" t="str">
-        <f>MID(A686,33,LEN(A686) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C686">
@@ -26605,7 +26608,7 @@
         <v>21</v>
       </c>
       <c r="B687" s="1" t="str">
-        <f>MID(A687,33,LEN(A687) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C687">
@@ -26623,7 +26626,7 @@
         <v>21</v>
       </c>
       <c r="B688" s="1" t="str">
-        <f>MID(A688,33,LEN(A688) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C688">
@@ -26641,7 +26644,7 @@
         <v>21</v>
       </c>
       <c r="B689" s="1" t="str">
-        <f>MID(A689,33,LEN(A689) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C689">
@@ -26659,7 +26662,7 @@
         <v>21</v>
       </c>
       <c r="B690" s="1" t="str">
-        <f>MID(A690,33,LEN(A690) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C690">
@@ -26677,7 +26680,7 @@
         <v>21</v>
       </c>
       <c r="B691" s="1" t="str">
-        <f>MID(A691,33,LEN(A691) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C691">
@@ -26695,7 +26698,7 @@
         <v>21</v>
       </c>
       <c r="B692" s="1" t="str">
-        <f>MID(A692,33,LEN(A692) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C692">
@@ -26713,7 +26716,7 @@
         <v>21</v>
       </c>
       <c r="B693" s="1" t="str">
-        <f>MID(A693,33,LEN(A693) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C693">
@@ -26731,7 +26734,7 @@
         <v>21</v>
       </c>
       <c r="B694" s="1" t="str">
-        <f>MID(A694,33,LEN(A694) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C694">
@@ -26749,7 +26752,7 @@
         <v>21</v>
       </c>
       <c r="B695" s="1" t="str">
-        <f>MID(A695,33,LEN(A695) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C695">
@@ -26767,7 +26770,7 @@
         <v>21</v>
       </c>
       <c r="B696" s="1" t="str">
-        <f>MID(A696,33,LEN(A696) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C696">
@@ -26785,7 +26788,7 @@
         <v>21</v>
       </c>
       <c r="B697" s="1" t="str">
-        <f>MID(A697,33,LEN(A697) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C697">
@@ -26803,7 +26806,7 @@
         <v>21</v>
       </c>
       <c r="B698" s="1" t="str">
-        <f>MID(A698,33,LEN(A698) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C698">
@@ -26821,7 +26824,7 @@
         <v>21</v>
       </c>
       <c r="B699" s="1" t="str">
-        <f>MID(A699,33,LEN(A699) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C699">
@@ -26839,7 +26842,7 @@
         <v>21</v>
       </c>
       <c r="B700" s="1" t="str">
-        <f>MID(A700,33,LEN(A700) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C700">
@@ -26857,7 +26860,7 @@
         <v>21</v>
       </c>
       <c r="B701" s="1" t="str">
-        <f>MID(A701,33,LEN(A701) - 36)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C701">
@@ -26875,7 +26878,7 @@
         <v>23</v>
       </c>
       <c r="B702" s="1" t="str">
-        <f>MID(A702,33,LEN(A702) - 36)</f>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="C702" s="1">
@@ -26893,7 +26896,7 @@
         <v>23</v>
       </c>
       <c r="B703" s="1" t="str">
-        <f>MID(A703,33,LEN(A703) - 36)</f>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="C703" s="1">
@@ -26911,7 +26914,7 @@
         <v>23</v>
       </c>
       <c r="B704" s="1" t="str">
-        <f>MID(A704,33,LEN(A704) - 36)</f>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="C704" s="1">
@@ -26929,7 +26932,7 @@
         <v>23</v>
       </c>
       <c r="B705" s="1" t="str">
-        <f>MID(A705,33,LEN(A705) - 36)</f>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="C705" s="1">
@@ -26947,7 +26950,7 @@
         <v>23</v>
       </c>
       <c r="B706" s="1" t="str">
-        <f>MID(A706,33,LEN(A706) - 36)</f>
+        <f t="shared" ref="B706:B769" si="22">MID(A706,33,LEN(A706) - 36)</f>
         <v>7</v>
       </c>
       <c r="C706" s="1">
@@ -26965,7 +26968,7 @@
         <v>23</v>
       </c>
       <c r="B707" s="1" t="str">
-        <f>MID(A707,33,LEN(A707) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C707" s="1">
@@ -26983,7 +26986,7 @@
         <v>23</v>
       </c>
       <c r="B708" s="1" t="str">
-        <f>MID(A708,33,LEN(A708) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C708" s="1">
@@ -27001,7 +27004,7 @@
         <v>23</v>
       </c>
       <c r="B709" s="1" t="str">
-        <f>MID(A709,33,LEN(A709) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C709" s="1">
@@ -27019,7 +27022,7 @@
         <v>23</v>
       </c>
       <c r="B710" s="1" t="str">
-        <f>MID(A710,33,LEN(A710) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C710" s="1">
@@ -27037,7 +27040,7 @@
         <v>23</v>
       </c>
       <c r="B711" s="1" t="str">
-        <f>MID(A711,33,LEN(A711) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C711" s="1">
@@ -27055,7 +27058,7 @@
         <v>23</v>
       </c>
       <c r="B712" s="1" t="str">
-        <f>MID(A712,33,LEN(A712) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C712" s="1">
@@ -27073,7 +27076,7 @@
         <v>23</v>
       </c>
       <c r="B713" s="1" t="str">
-        <f>MID(A713,33,LEN(A713) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C713" s="1">
@@ -27091,7 +27094,7 @@
         <v>23</v>
       </c>
       <c r="B714" s="1" t="str">
-        <f>MID(A714,33,LEN(A714) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C714" s="1">
@@ -27109,7 +27112,7 @@
         <v>23</v>
       </c>
       <c r="B715" s="1" t="str">
-        <f>MID(A715,33,LEN(A715) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C715" s="1">
@@ -27127,7 +27130,7 @@
         <v>23</v>
       </c>
       <c r="B716" s="1" t="str">
-        <f>MID(A716,33,LEN(A716) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C716" s="1">
@@ -27145,7 +27148,7 @@
         <v>23</v>
       </c>
       <c r="B717" s="1" t="str">
-        <f>MID(A717,33,LEN(A717) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C717" s="1">
@@ -27163,7 +27166,7 @@
         <v>23</v>
       </c>
       <c r="B718" s="1" t="str">
-        <f>MID(A718,33,LEN(A718) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C718" s="1">
@@ -27181,7 +27184,7 @@
         <v>23</v>
       </c>
       <c r="B719" s="1" t="str">
-        <f>MID(A719,33,LEN(A719) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C719" s="1">
@@ -27199,7 +27202,7 @@
         <v>23</v>
       </c>
       <c r="B720" s="1" t="str">
-        <f>MID(A720,33,LEN(A720) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C720" s="1">
@@ -27217,7 +27220,7 @@
         <v>23</v>
       </c>
       <c r="B721" s="1" t="str">
-        <f>MID(A721,33,LEN(A721) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C721" s="1">
@@ -27235,7 +27238,7 @@
         <v>23</v>
       </c>
       <c r="B722" s="1" t="str">
-        <f>MID(A722,33,LEN(A722) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C722" s="1">
@@ -27253,7 +27256,7 @@
         <v>23</v>
       </c>
       <c r="B723" s="1" t="str">
-        <f>MID(A723,33,LEN(A723) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C723" s="1">
@@ -27271,7 +27274,7 @@
         <v>23</v>
       </c>
       <c r="B724" s="1" t="str">
-        <f>MID(A724,33,LEN(A724) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C724" s="1">
@@ -27289,7 +27292,7 @@
         <v>23</v>
       </c>
       <c r="B725" s="1" t="str">
-        <f>MID(A725,33,LEN(A725) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C725" s="1">
@@ -27307,7 +27310,7 @@
         <v>23</v>
       </c>
       <c r="B726" s="1" t="str">
-        <f>MID(A726,33,LEN(A726) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C726" s="1">
@@ -27325,7 +27328,7 @@
         <v>23</v>
       </c>
       <c r="B727" s="1" t="str">
-        <f>MID(A727,33,LEN(A727) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C727" s="1">
@@ -27343,7 +27346,7 @@
         <v>23</v>
       </c>
       <c r="B728" s="1" t="str">
-        <f>MID(A728,33,LEN(A728) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C728" s="1">
@@ -27361,7 +27364,7 @@
         <v>23</v>
       </c>
       <c r="B729" s="1" t="str">
-        <f>MID(A729,33,LEN(A729) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C729" s="1">
@@ -27379,7 +27382,7 @@
         <v>23</v>
       </c>
       <c r="B730" s="1" t="str">
-        <f>MID(A730,33,LEN(A730) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C730" s="1">
@@ -27397,7 +27400,7 @@
         <v>23</v>
       </c>
       <c r="B731" s="1" t="str">
-        <f>MID(A731,33,LEN(A731) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C731" s="1">
@@ -27415,7 +27418,7 @@
         <v>23</v>
       </c>
       <c r="B732" s="1" t="str">
-        <f>MID(A732,33,LEN(A732) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C732" s="1">
@@ -27433,7 +27436,7 @@
         <v>23</v>
       </c>
       <c r="B733" s="1" t="str">
-        <f>MID(A733,33,LEN(A733) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C733" s="1">
@@ -27451,7 +27454,7 @@
         <v>23</v>
       </c>
       <c r="B734" s="1" t="str">
-        <f>MID(A734,33,LEN(A734) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C734" s="1">
@@ -27469,7 +27472,7 @@
         <v>23</v>
       </c>
       <c r="B735" s="1" t="str">
-        <f>MID(A735,33,LEN(A735) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C735" s="1">
@@ -27487,7 +27490,7 @@
         <v>23</v>
       </c>
       <c r="B736" s="1" t="str">
-        <f>MID(A736,33,LEN(A736) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C736" s="1">
@@ -27505,7 +27508,7 @@
         <v>23</v>
       </c>
       <c r="B737" s="1" t="str">
-        <f>MID(A737,33,LEN(A737) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C737" s="1">
@@ -27523,7 +27526,7 @@
         <v>23</v>
       </c>
       <c r="B738" s="1" t="str">
-        <f>MID(A738,33,LEN(A738) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C738" s="1">
@@ -27541,7 +27544,7 @@
         <v>23</v>
       </c>
       <c r="B739" s="1" t="str">
-        <f>MID(A739,33,LEN(A739) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C739" s="1">
@@ -27559,7 +27562,7 @@
         <v>23</v>
       </c>
       <c r="B740" s="1" t="str">
-        <f>MID(A740,33,LEN(A740) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C740" s="1">
@@ -27577,7 +27580,7 @@
         <v>23</v>
       </c>
       <c r="B741" s="1" t="str">
-        <f>MID(A741,33,LEN(A741) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C741" s="1">
@@ -27595,7 +27598,7 @@
         <v>23</v>
       </c>
       <c r="B742" s="1" t="str">
-        <f>MID(A742,33,LEN(A742) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C742" s="1">
@@ -27613,7 +27616,7 @@
         <v>23</v>
       </c>
       <c r="B743" s="1" t="str">
-        <f>MID(A743,33,LEN(A743) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C743" s="1">
@@ -27631,7 +27634,7 @@
         <v>23</v>
       </c>
       <c r="B744" s="1" t="str">
-        <f>MID(A744,33,LEN(A744) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C744">
@@ -27649,7 +27652,7 @@
         <v>23</v>
       </c>
       <c r="B745" s="1" t="str">
-        <f>MID(A745,33,LEN(A745) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C745">
@@ -27667,7 +27670,7 @@
         <v>23</v>
       </c>
       <c r="B746" s="1" t="str">
-        <f>MID(A746,33,LEN(A746) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C746">
@@ -27685,7 +27688,7 @@
         <v>23</v>
       </c>
       <c r="B747" s="1" t="str">
-        <f>MID(A747,33,LEN(A747) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C747">
@@ -27703,7 +27706,7 @@
         <v>23</v>
       </c>
       <c r="B748" s="1" t="str">
-        <f>MID(A748,33,LEN(A748) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C748">
@@ -27721,7 +27724,7 @@
         <v>23</v>
       </c>
       <c r="B749" s="1" t="str">
-        <f>MID(A749,33,LEN(A749) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C749">
@@ -27739,7 +27742,7 @@
         <v>23</v>
       </c>
       <c r="B750" s="1" t="str">
-        <f>MID(A750,33,LEN(A750) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C750">
@@ -27757,7 +27760,7 @@
         <v>23</v>
       </c>
       <c r="B751" s="1" t="str">
-        <f>MID(A751,33,LEN(A751) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C751">
@@ -27775,7 +27778,7 @@
         <v>23</v>
       </c>
       <c r="B752" s="1" t="str">
-        <f>MID(A752,33,LEN(A752) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C752">
@@ -27793,7 +27796,7 @@
         <v>23</v>
       </c>
       <c r="B753" s="1" t="str">
-        <f>MID(A753,33,LEN(A753) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C753">
@@ -27811,7 +27814,7 @@
         <v>23</v>
       </c>
       <c r="B754" s="1" t="str">
-        <f>MID(A754,33,LEN(A754) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C754">
@@ -27829,7 +27832,7 @@
         <v>23</v>
       </c>
       <c r="B755" s="1" t="str">
-        <f>MID(A755,33,LEN(A755) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C755">
@@ -27847,7 +27850,7 @@
         <v>23</v>
       </c>
       <c r="B756" s="1" t="str">
-        <f>MID(A756,33,LEN(A756) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C756">
@@ -27865,7 +27868,7 @@
         <v>23</v>
       </c>
       <c r="B757" s="1" t="str">
-        <f>MID(A757,33,LEN(A757) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C757">
@@ -27883,7 +27886,7 @@
         <v>23</v>
       </c>
       <c r="B758" s="1" t="str">
-        <f>MID(A758,33,LEN(A758) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C758">
@@ -27901,7 +27904,7 @@
         <v>23</v>
       </c>
       <c r="B759" s="1" t="str">
-        <f>MID(A759,33,LEN(A759) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C759">
@@ -27919,7 +27922,7 @@
         <v>23</v>
       </c>
       <c r="B760" s="1" t="str">
-        <f>MID(A760,33,LEN(A760) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C760">
@@ -27937,7 +27940,7 @@
         <v>23</v>
       </c>
       <c r="B761" s="1" t="str">
-        <f>MID(A761,33,LEN(A761) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C761">
@@ -27955,7 +27958,7 @@
         <v>23</v>
       </c>
       <c r="B762" s="1" t="str">
-        <f>MID(A762,33,LEN(A762) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C762">
@@ -27973,7 +27976,7 @@
         <v>23</v>
       </c>
       <c r="B763" s="1" t="str">
-        <f>MID(A763,33,LEN(A763) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C763">
@@ -27991,7 +27994,7 @@
         <v>23</v>
       </c>
       <c r="B764" s="1" t="str">
-        <f>MID(A764,33,LEN(A764) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C764">
@@ -28009,7 +28012,7 @@
         <v>23</v>
       </c>
       <c r="B765" s="1" t="str">
-        <f>MID(A765,33,LEN(A765) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C765">
@@ -28027,7 +28030,7 @@
         <v>23</v>
       </c>
       <c r="B766" s="1" t="str">
-        <f>MID(A766,33,LEN(A766) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C766">
@@ -28045,7 +28048,7 @@
         <v>23</v>
       </c>
       <c r="B767" s="1" t="str">
-        <f>MID(A767,33,LEN(A767) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C767">
@@ -28063,7 +28066,7 @@
         <v>23</v>
       </c>
       <c r="B768" s="1" t="str">
-        <f>MID(A768,33,LEN(A768) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C768">
@@ -28081,7 +28084,7 @@
         <v>23</v>
       </c>
       <c r="B769" s="1" t="str">
-        <f>MID(A769,33,LEN(A769) - 36)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="C769">
@@ -28099,7 +28102,7 @@
         <v>23</v>
       </c>
       <c r="B770" s="1" t="str">
-        <f>MID(A770,33,LEN(A770) - 36)</f>
+        <f t="shared" ref="B770:B833" si="23">MID(A770,33,LEN(A770) - 36)</f>
         <v>7</v>
       </c>
       <c r="C770">
@@ -28117,7 +28120,7 @@
         <v>23</v>
       </c>
       <c r="B771" s="1" t="str">
-        <f>MID(A771,33,LEN(A771) - 36)</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="C771">
@@ -28135,7 +28138,7 @@
         <v>23</v>
       </c>
       <c r="B772" s="1" t="str">
-        <f>MID(A772,33,LEN(A772) - 36)</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="C772">
@@ -28153,7 +28156,7 @@
         <v>23</v>
       </c>
       <c r="B773" s="1" t="str">
-        <f>MID(A773,33,LEN(A773) - 36)</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="C773">
@@ -28171,7 +28174,7 @@
         <v>23</v>
       </c>
       <c r="B774" s="1" t="str">
-        <f>MID(A774,33,LEN(A774) - 36)</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="C774">
@@ -28189,7 +28192,7 @@
         <v>23</v>
       </c>
       <c r="B775" s="1" t="str">
-        <f>MID(A775,33,LEN(A775) - 36)</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="C775">
@@ -28207,7 +28210,7 @@
         <v>23</v>
       </c>
       <c r="B776" s="1" t="str">
-        <f>MID(A776,33,LEN(A776) - 36)</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="C776">
@@ -28225,7 +28228,7 @@
         <v>23</v>
       </c>
       <c r="B777" s="1" t="str">
-        <f>MID(A777,33,LEN(A777) - 36)</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="C777">
@@ -28243,7 +28246,7 @@
         <v>23</v>
       </c>
       <c r="B778" s="1" t="str">
-        <f>MID(A778,33,LEN(A778) - 36)</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="C778">
@@ -28261,7 +28264,7 @@
         <v>23</v>
       </c>
       <c r="B779" s="1" t="str">
-        <f>MID(A779,33,LEN(A779) - 36)</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="C779">
@@ -28279,7 +28282,7 @@
         <v>23</v>
       </c>
       <c r="B780" s="1" t="str">
-        <f>MID(A780,33,LEN(A780) - 36)</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="C780">
@@ -28297,7 +28300,7 @@
         <v>23</v>
       </c>
       <c r="B781" s="1" t="str">
-        <f>MID(A781,33,LEN(A781) - 36)</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="C781">
@@ -28315,7 +28318,7 @@
         <v>23</v>
       </c>
       <c r="B782" s="1" t="str">
-        <f>MID(A782,33,LEN(A782) - 36)</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="C782">
@@ -28333,7 +28336,7 @@
         <v>23</v>
       </c>
       <c r="B783" s="1" t="str">
-        <f>MID(A783,33,LEN(A783) - 36)</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="C783">
@@ -28351,7 +28354,7 @@
         <v>23</v>
       </c>
       <c r="B784" s="1" t="str">
-        <f>MID(A784,33,LEN(A784) - 36)</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="C784">
@@ -28369,7 +28372,7 @@
         <v>23</v>
       </c>
       <c r="B785" s="1" t="str">
-        <f>MID(A785,33,LEN(A785) - 36)</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="C785">
@@ -28387,7 +28390,7 @@
         <v>23</v>
       </c>
       <c r="B786" s="1" t="str">
-        <f>MID(A786,33,LEN(A786) - 36)</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="C786">
@@ -28405,7 +28408,7 @@
         <v>23</v>
       </c>
       <c r="B787" s="1" t="str">
-        <f>MID(A787,33,LEN(A787) - 36)</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="C787">
@@ -28423,7 +28426,7 @@
         <v>23</v>
       </c>
       <c r="B788" s="1" t="str">
-        <f>MID(A788,33,LEN(A788) - 36)</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="C788">
@@ -28441,7 +28444,7 @@
         <v>23</v>
       </c>
       <c r="B789" s="1" t="str">
-        <f>MID(A789,33,LEN(A789) - 36)</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="C789">
@@ -28459,7 +28462,7 @@
         <v>23</v>
       </c>
       <c r="B790" s="1" t="str">
-        <f>MID(A790,33,LEN(A790) - 36)</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="C790">
@@ -28477,7 +28480,7 @@
         <v>23</v>
       </c>
       <c r="B791" s="1" t="str">
-        <f>MID(A791,33,LEN(A791) - 36)</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="C791">
@@ -28495,7 +28498,7 @@
         <v>23</v>
       </c>
       <c r="B792" s="1" t="str">
-        <f>MID(A792,33,LEN(A792) - 36)</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="C792">
@@ -28513,7 +28516,7 @@
         <v>23</v>
       </c>
       <c r="B793" s="1" t="str">
-        <f>MID(A793,33,LEN(A793) - 36)</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="C793">
@@ -28531,7 +28534,7 @@
         <v>23</v>
       </c>
       <c r="B794" s="1" t="str">
-        <f>MID(A794,33,LEN(A794) - 36)</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="C794">
@@ -28549,7 +28552,7 @@
         <v>23</v>
       </c>
       <c r="B795" s="1" t="str">
-        <f>MID(A795,33,LEN(A795) - 36)</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="C795">
@@ -28567,7 +28570,7 @@
         <v>23</v>
       </c>
       <c r="B796" s="1" t="str">
-        <f>MID(A796,33,LEN(A796) - 36)</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="C796">
@@ -28585,7 +28588,7 @@
         <v>23</v>
       </c>
       <c r="B797" s="1" t="str">
-        <f>MID(A797,33,LEN(A797) - 36)</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="C797">
@@ -28603,7 +28606,7 @@
         <v>23</v>
       </c>
       <c r="B798" s="1" t="str">
-        <f>MID(A798,33,LEN(A798) - 36)</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="C798">
@@ -28621,7 +28624,7 @@
         <v>23</v>
       </c>
       <c r="B799" s="1" t="str">
-        <f>MID(A799,33,LEN(A799) - 36)</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="C799">
@@ -28639,7 +28642,7 @@
         <v>23</v>
       </c>
       <c r="B800" s="1" t="str">
-        <f>MID(A800,33,LEN(A800) - 36)</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="C800">
@@ -28657,7 +28660,7 @@
         <v>23</v>
       </c>
       <c r="B801" s="1" t="str">
-        <f>MID(A801,33,LEN(A801) - 36)</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="C801">
@@ -28675,7 +28678,7 @@
         <v>25</v>
       </c>
       <c r="B802" s="1" t="str">
-        <f>MID(A802,33,LEN(A802) - 36)</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="C802" s="1">
@@ -28693,7 +28696,7 @@
         <v>25</v>
       </c>
       <c r="B803" s="1" t="str">
-        <f>MID(A803,33,LEN(A803) - 36)</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="C803" s="1">
@@ -28711,7 +28714,7 @@
         <v>25</v>
       </c>
       <c r="B804" s="1" t="str">
-        <f>MID(A804,33,LEN(A804) - 36)</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="C804" s="1">
@@ -28729,7 +28732,7 @@
         <v>25</v>
       </c>
       <c r="B805" s="1" t="str">
-        <f>MID(A805,33,LEN(A805) - 36)</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="C805" s="1">
@@ -28747,7 +28750,7 @@
         <v>25</v>
       </c>
       <c r="B806" s="1" t="str">
-        <f>MID(A806,33,LEN(A806) - 36)</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="C806" s="1">
@@ -28765,7 +28768,7 @@
         <v>25</v>
       </c>
       <c r="B807" s="1" t="str">
-        <f>MID(A807,33,LEN(A807) - 36)</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="C807" s="1">
@@ -28783,7 +28786,7 @@
         <v>25</v>
       </c>
       <c r="B808" s="1" t="str">
-        <f>MID(A808,33,LEN(A808) - 36)</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="C808" s="1">
@@ -28801,7 +28804,7 @@
         <v>25</v>
       </c>
       <c r="B809" s="1" t="str">
-        <f>MID(A809,33,LEN(A809) - 36)</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="C809" s="1">
@@ -28819,7 +28822,7 @@
         <v>25</v>
       </c>
       <c r="B810" s="1" t="str">
-        <f>MID(A810,33,LEN(A810) - 36)</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="C810" s="1">
@@ -28837,7 +28840,7 @@
         <v>25</v>
       </c>
       <c r="B811" s="1" t="str">
-        <f>MID(A811,33,LEN(A811) - 36)</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="C811" s="1">
@@ -28855,7 +28858,7 @@
         <v>25</v>
       </c>
       <c r="B812" s="1" t="str">
-        <f>MID(A812,33,LEN(A812) - 36)</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="C812" s="1">
@@ -28873,7 +28876,7 @@
         <v>25</v>
       </c>
       <c r="B813" s="1" t="str">
-        <f>MID(A813,33,LEN(A813) - 36)</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="C813" s="1">
@@ -28891,7 +28894,7 @@
         <v>25</v>
       </c>
       <c r="B814" s="1" t="str">
-        <f>MID(A814,33,LEN(A814) - 36)</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="C814" s="1">
@@ -28909,7 +28912,7 @@
         <v>25</v>
       </c>
       <c r="B815" s="1" t="str">
-        <f>MID(A815,33,LEN(A815) - 36)</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="C815" s="1">
@@ -28927,7 +28930,7 @@
         <v>25</v>
       </c>
       <c r="B816" s="1" t="str">
-        <f>MID(A816,33,LEN(A816) - 36)</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="C816" s="1">
@@ -28945,7 +28948,7 @@
         <v>25</v>
       </c>
       <c r="B817" s="1" t="str">
-        <f>MID(A817,33,LEN(A817) - 36)</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="C817" s="1">
@@ -28963,7 +28966,7 @@
         <v>25</v>
       </c>
       <c r="B818" s="1" t="str">
-        <f>MID(A818,33,LEN(A818) - 36)</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="C818" s="1">
@@ -28981,7 +28984,7 @@
         <v>25</v>
       </c>
       <c r="B819" s="1" t="str">
-        <f>MID(A819,33,LEN(A819) - 36)</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="C819" s="1">
@@ -28999,7 +29002,7 @@
         <v>25</v>
       </c>
       <c r="B820" s="1" t="str">
-        <f>MID(A820,33,LEN(A820) - 36)</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="C820" s="1">
@@ -29017,7 +29020,7 @@
         <v>25</v>
       </c>
       <c r="B821" s="1" t="str">
-        <f>MID(A821,33,LEN(A821) - 36)</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="C821" s="1">
@@ -29035,7 +29038,7 @@
         <v>25</v>
       </c>
       <c r="B822" s="1" t="str">
-        <f>MID(A822,33,LEN(A822) - 36)</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="C822" s="1">
@@ -29053,7 +29056,7 @@
         <v>25</v>
       </c>
       <c r="B823" s="1" t="str">
-        <f>MID(A823,33,LEN(A823) - 36)</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="C823" s="1">
@@ -29071,7 +29074,7 @@
         <v>25</v>
       </c>
       <c r="B824" s="1" t="str">
-        <f>MID(A824,33,LEN(A824) - 36)</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="C824" s="1">
@@ -29089,7 +29092,7 @@
         <v>25</v>
       </c>
       <c r="B825" s="1" t="str">
-        <f>MID(A825,33,LEN(A825) - 36)</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="C825" s="1">
@@ -29107,7 +29110,7 @@
         <v>25</v>
       </c>
       <c r="B826" s="1" t="str">
-        <f>MID(A826,33,LEN(A826) - 36)</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="C826" s="1">
@@ -29125,7 +29128,7 @@
         <v>25</v>
       </c>
       <c r="B827" s="1" t="str">
-        <f>MID(A827,33,LEN(A827) - 36)</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="C827" s="1">
@@ -29143,7 +29146,7 @@
         <v>25</v>
       </c>
       <c r="B828" s="1" t="str">
-        <f>MID(A828,33,LEN(A828) - 36)</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="C828" s="1">
@@ -29161,7 +29164,7 @@
         <v>25</v>
       </c>
       <c r="B829" s="1" t="str">
-        <f>MID(A829,33,LEN(A829) - 36)</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="C829" s="1">
@@ -29179,7 +29182,7 @@
         <v>25</v>
       </c>
       <c r="B830" s="1" t="str">
-        <f>MID(A830,33,LEN(A830) - 36)</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="C830" s="1">
@@ -29197,7 +29200,7 @@
         <v>25</v>
       </c>
       <c r="B831" s="1" t="str">
-        <f>MID(A831,33,LEN(A831) - 36)</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="C831" s="1">
@@ -29215,7 +29218,7 @@
         <v>25</v>
       </c>
       <c r="B832" s="1" t="str">
-        <f>MID(A832,33,LEN(A832) - 36)</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="C832" s="1">
@@ -29233,7 +29236,7 @@
         <v>25</v>
       </c>
       <c r="B833" s="1" t="str">
-        <f>MID(A833,33,LEN(A833) - 36)</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="C833" s="1">
@@ -29251,7 +29254,7 @@
         <v>25</v>
       </c>
       <c r="B834" s="1" t="str">
-        <f>MID(A834,33,LEN(A834) - 36)</f>
+        <f t="shared" ref="B834:B897" si="24">MID(A834,33,LEN(A834) - 36)</f>
         <v>8</v>
       </c>
       <c r="C834" s="1">
@@ -29269,7 +29272,7 @@
         <v>25</v>
       </c>
       <c r="B835" s="1" t="str">
-        <f>MID(A835,33,LEN(A835) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C835" s="1">
@@ -29287,7 +29290,7 @@
         <v>25</v>
       </c>
       <c r="B836" s="1" t="str">
-        <f>MID(A836,33,LEN(A836) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C836" s="1">
@@ -29305,7 +29308,7 @@
         <v>25</v>
       </c>
       <c r="B837" s="1" t="str">
-        <f>MID(A837,33,LEN(A837) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C837" s="1">
@@ -29323,7 +29326,7 @@
         <v>25</v>
       </c>
       <c r="B838" s="1" t="str">
-        <f>MID(A838,33,LEN(A838) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C838" s="1">
@@ -29341,7 +29344,7 @@
         <v>25</v>
       </c>
       <c r="B839" s="1" t="str">
-        <f>MID(A839,33,LEN(A839) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C839" s="1">
@@ -29359,7 +29362,7 @@
         <v>25</v>
       </c>
       <c r="B840" s="1" t="str">
-        <f>MID(A840,33,LEN(A840) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C840" s="1">
@@ -29377,7 +29380,7 @@
         <v>25</v>
       </c>
       <c r="B841" s="1" t="str">
-        <f>MID(A841,33,LEN(A841) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C841" s="1">
@@ -29395,7 +29398,7 @@
         <v>25</v>
       </c>
       <c r="B842" s="1" t="str">
-        <f>MID(A842,33,LEN(A842) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C842" s="1">
@@ -29413,7 +29416,7 @@
         <v>25</v>
       </c>
       <c r="B843" s="1" t="str">
-        <f>MID(A843,33,LEN(A843) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C843" s="1">
@@ -29431,7 +29434,7 @@
         <v>25</v>
       </c>
       <c r="B844" s="1" t="str">
-        <f>MID(A844,33,LEN(A844) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C844">
@@ -29449,7 +29452,7 @@
         <v>25</v>
       </c>
       <c r="B845" s="1" t="str">
-        <f>MID(A845,33,LEN(A845) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C845">
@@ -29467,7 +29470,7 @@
         <v>25</v>
       </c>
       <c r="B846" s="1" t="str">
-        <f>MID(A846,33,LEN(A846) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C846">
@@ -29485,7 +29488,7 @@
         <v>25</v>
       </c>
       <c r="B847" s="1" t="str">
-        <f>MID(A847,33,LEN(A847) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C847">
@@ -29503,7 +29506,7 @@
         <v>25</v>
       </c>
       <c r="B848" s="1" t="str">
-        <f>MID(A848,33,LEN(A848) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C848">
@@ -29521,7 +29524,7 @@
         <v>25</v>
       </c>
       <c r="B849" s="1" t="str">
-        <f>MID(A849,33,LEN(A849) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C849">
@@ -29539,7 +29542,7 @@
         <v>25</v>
       </c>
       <c r="B850" s="1" t="str">
-        <f>MID(A850,33,LEN(A850) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C850">
@@ -29557,7 +29560,7 @@
         <v>25</v>
       </c>
       <c r="B851" s="1" t="str">
-        <f>MID(A851,33,LEN(A851) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C851">
@@ -29575,7 +29578,7 @@
         <v>25</v>
       </c>
       <c r="B852" s="1" t="str">
-        <f>MID(A852,33,LEN(A852) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C852">
@@ -29593,7 +29596,7 @@
         <v>25</v>
       </c>
       <c r="B853" s="1" t="str">
-        <f>MID(A853,33,LEN(A853) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C853">
@@ -29611,7 +29614,7 @@
         <v>25</v>
       </c>
       <c r="B854" s="1" t="str">
-        <f>MID(A854,33,LEN(A854) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C854">
@@ -29629,7 +29632,7 @@
         <v>25</v>
       </c>
       <c r="B855" s="1" t="str">
-        <f>MID(A855,33,LEN(A855) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C855">
@@ -29647,7 +29650,7 @@
         <v>25</v>
       </c>
       <c r="B856" s="1" t="str">
-        <f>MID(A856,33,LEN(A856) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C856">
@@ -29665,7 +29668,7 @@
         <v>25</v>
       </c>
       <c r="B857" s="1" t="str">
-        <f>MID(A857,33,LEN(A857) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C857">
@@ -29683,7 +29686,7 @@
         <v>25</v>
       </c>
       <c r="B858" s="1" t="str">
-        <f>MID(A858,33,LEN(A858) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C858">
@@ -29701,7 +29704,7 @@
         <v>25</v>
       </c>
       <c r="B859" s="1" t="str">
-        <f>MID(A859,33,LEN(A859) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C859">
@@ -29719,7 +29722,7 @@
         <v>25</v>
       </c>
       <c r="B860" s="1" t="str">
-        <f>MID(A860,33,LEN(A860) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C860">
@@ -29737,7 +29740,7 @@
         <v>25</v>
       </c>
       <c r="B861" s="1" t="str">
-        <f>MID(A861,33,LEN(A861) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C861">
@@ -29755,7 +29758,7 @@
         <v>25</v>
       </c>
       <c r="B862" s="1" t="str">
-        <f>MID(A862,33,LEN(A862) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C862">
@@ -29773,7 +29776,7 @@
         <v>25</v>
       </c>
       <c r="B863" s="1" t="str">
-        <f>MID(A863,33,LEN(A863) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C863">
@@ -29791,7 +29794,7 @@
         <v>25</v>
       </c>
       <c r="B864" s="1" t="str">
-        <f>MID(A864,33,LEN(A864) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C864">
@@ -29809,7 +29812,7 @@
         <v>25</v>
       </c>
       <c r="B865" s="1" t="str">
-        <f>MID(A865,33,LEN(A865) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C865">
@@ -29827,7 +29830,7 @@
         <v>25</v>
       </c>
       <c r="B866" s="1" t="str">
-        <f>MID(A866,33,LEN(A866) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C866">
@@ -29845,7 +29848,7 @@
         <v>25</v>
       </c>
       <c r="B867" s="1" t="str">
-        <f>MID(A867,33,LEN(A867) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C867">
@@ -29863,7 +29866,7 @@
         <v>25</v>
       </c>
       <c r="B868" s="1" t="str">
-        <f>MID(A868,33,LEN(A868) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C868">
@@ -29881,7 +29884,7 @@
         <v>25</v>
       </c>
       <c r="B869" s="1" t="str">
-        <f>MID(A869,33,LEN(A869) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C869">
@@ -29899,7 +29902,7 @@
         <v>25</v>
       </c>
       <c r="B870" s="1" t="str">
-        <f>MID(A870,33,LEN(A870) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C870">
@@ -29917,7 +29920,7 @@
         <v>25</v>
       </c>
       <c r="B871" s="1" t="str">
-        <f>MID(A871,33,LEN(A871) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C871">
@@ -29935,7 +29938,7 @@
         <v>25</v>
       </c>
       <c r="B872" s="1" t="str">
-        <f>MID(A872,33,LEN(A872) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C872">
@@ -29953,7 +29956,7 @@
         <v>25</v>
       </c>
       <c r="B873" s="1" t="str">
-        <f>MID(A873,33,LEN(A873) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C873">
@@ -29971,7 +29974,7 @@
         <v>25</v>
       </c>
       <c r="B874" s="1" t="str">
-        <f>MID(A874,33,LEN(A874) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C874">
@@ -29989,7 +29992,7 @@
         <v>25</v>
       </c>
       <c r="B875" s="1" t="str">
-        <f>MID(A875,33,LEN(A875) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C875">
@@ -30007,7 +30010,7 @@
         <v>25</v>
       </c>
       <c r="B876" s="1" t="str">
-        <f>MID(A876,33,LEN(A876) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C876">
@@ -30025,7 +30028,7 @@
         <v>25</v>
       </c>
       <c r="B877" s="1" t="str">
-        <f>MID(A877,33,LEN(A877) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C877">
@@ -30043,7 +30046,7 @@
         <v>25</v>
       </c>
       <c r="B878" s="1" t="str">
-        <f>MID(A878,33,LEN(A878) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C878">
@@ -30061,7 +30064,7 @@
         <v>25</v>
       </c>
       <c r="B879" s="1" t="str">
-        <f>MID(A879,33,LEN(A879) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C879">
@@ -30079,7 +30082,7 @@
         <v>25</v>
       </c>
       <c r="B880" s="1" t="str">
-        <f>MID(A880,33,LEN(A880) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C880">
@@ -30097,7 +30100,7 @@
         <v>25</v>
       </c>
       <c r="B881" s="1" t="str">
-        <f>MID(A881,33,LEN(A881) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C881">
@@ -30115,7 +30118,7 @@
         <v>25</v>
       </c>
       <c r="B882" s="1" t="str">
-        <f>MID(A882,33,LEN(A882) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C882">
@@ -30133,7 +30136,7 @@
         <v>25</v>
       </c>
       <c r="B883" s="1" t="str">
-        <f>MID(A883,33,LEN(A883) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C883">
@@ -30151,7 +30154,7 @@
         <v>25</v>
       </c>
       <c r="B884" s="1" t="str">
-        <f>MID(A884,33,LEN(A884) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C884">
@@ -30169,7 +30172,7 @@
         <v>25</v>
       </c>
       <c r="B885" s="1" t="str">
-        <f>MID(A885,33,LEN(A885) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C885">
@@ -30187,7 +30190,7 @@
         <v>25</v>
       </c>
       <c r="B886" s="1" t="str">
-        <f>MID(A886,33,LEN(A886) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C886">
@@ -30205,7 +30208,7 @@
         <v>25</v>
       </c>
       <c r="B887" s="1" t="str">
-        <f>MID(A887,33,LEN(A887) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C887">
@@ -30223,7 +30226,7 @@
         <v>25</v>
       </c>
       <c r="B888" s="1" t="str">
-        <f>MID(A888,33,LEN(A888) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C888">
@@ -30241,7 +30244,7 @@
         <v>25</v>
       </c>
       <c r="B889" s="1" t="str">
-        <f>MID(A889,33,LEN(A889) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C889">
@@ -30259,7 +30262,7 @@
         <v>25</v>
       </c>
       <c r="B890" s="1" t="str">
-        <f>MID(A890,33,LEN(A890) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C890">
@@ -30277,7 +30280,7 @@
         <v>25</v>
       </c>
       <c r="B891" s="1" t="str">
-        <f>MID(A891,33,LEN(A891) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C891">
@@ -30295,7 +30298,7 @@
         <v>25</v>
       </c>
       <c r="B892" s="1" t="str">
-        <f>MID(A892,33,LEN(A892) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C892">
@@ -30313,7 +30316,7 @@
         <v>25</v>
       </c>
       <c r="B893" s="1" t="str">
-        <f>MID(A893,33,LEN(A893) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C893">
@@ -30331,7 +30334,7 @@
         <v>25</v>
       </c>
       <c r="B894" s="1" t="str">
-        <f>MID(A894,33,LEN(A894) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C894">
@@ -30349,7 +30352,7 @@
         <v>25</v>
       </c>
       <c r="B895" s="1" t="str">
-        <f>MID(A895,33,LEN(A895) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C895">
@@ -30367,7 +30370,7 @@
         <v>25</v>
       </c>
       <c r="B896" s="1" t="str">
-        <f>MID(A896,33,LEN(A896) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C896">
@@ -30385,7 +30388,7 @@
         <v>25</v>
       </c>
       <c r="B897" s="1" t="str">
-        <f>MID(A897,33,LEN(A897) - 36)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="C897">
@@ -30403,7 +30406,7 @@
         <v>25</v>
       </c>
       <c r="B898" s="1" t="str">
-        <f>MID(A898,33,LEN(A898) - 36)</f>
+        <f t="shared" ref="B898:B961" si="25">MID(A898,33,LEN(A898) - 36)</f>
         <v>8</v>
       </c>
       <c r="C898">
@@ -30421,7 +30424,7 @@
         <v>25</v>
       </c>
       <c r="B899" s="1" t="str">
-        <f>MID(A899,33,LEN(A899) - 36)</f>
+        <f t="shared" si="25"/>
         <v>8</v>
       </c>
       <c r="C899">
@@ -30439,7 +30442,7 @@
         <v>25</v>
       </c>
       <c r="B900" s="1" t="str">
-        <f>MID(A900,33,LEN(A900) - 36)</f>
+        <f t="shared" si="25"/>
         <v>8</v>
       </c>
       <c r="C900">
@@ -30457,7 +30460,7 @@
         <v>25</v>
       </c>
       <c r="B901" s="1" t="str">
-        <f>MID(A901,33,LEN(A901) - 36)</f>
+        <f t="shared" si="25"/>
         <v>8</v>
       </c>
       <c r="C901">
@@ -30475,7 +30478,7 @@
         <v>27</v>
       </c>
       <c r="B902" s="1" t="str">
-        <f>MID(A902,33,LEN(A902) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C902" s="1">
@@ -30493,7 +30496,7 @@
         <v>27</v>
       </c>
       <c r="B903" s="1" t="str">
-        <f>MID(A903,33,LEN(A903) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C903" s="1">
@@ -30511,7 +30514,7 @@
         <v>27</v>
       </c>
       <c r="B904" s="1" t="str">
-        <f>MID(A904,33,LEN(A904) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C904" s="1">
@@ -30529,7 +30532,7 @@
         <v>27</v>
       </c>
       <c r="B905" s="1" t="str">
-        <f>MID(A905,33,LEN(A905) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C905" s="1">
@@ -30547,7 +30550,7 @@
         <v>27</v>
       </c>
       <c r="B906" s="1" t="str">
-        <f>MID(A906,33,LEN(A906) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C906" s="1">
@@ -30565,7 +30568,7 @@
         <v>27</v>
       </c>
       <c r="B907" s="1" t="str">
-        <f>MID(A907,33,LEN(A907) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C907" s="1">
@@ -30583,7 +30586,7 @@
         <v>27</v>
       </c>
       <c r="B908" s="1" t="str">
-        <f>MID(A908,33,LEN(A908) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C908" s="1">
@@ -30601,7 +30604,7 @@
         <v>27</v>
       </c>
       <c r="B909" s="1" t="str">
-        <f>MID(A909,33,LEN(A909) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C909" s="1">
@@ -30619,7 +30622,7 @@
         <v>27</v>
       </c>
       <c r="B910" s="1" t="str">
-        <f>MID(A910,33,LEN(A910) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C910" s="1">
@@ -30637,7 +30640,7 @@
         <v>27</v>
       </c>
       <c r="B911" s="1" t="str">
-        <f>MID(A911,33,LEN(A911) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C911" s="1">
@@ -30655,7 +30658,7 @@
         <v>27</v>
       </c>
       <c r="B912" s="1" t="str">
-        <f>MID(A912,33,LEN(A912) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C912" s="1">
@@ -30673,7 +30676,7 @@
         <v>27</v>
       </c>
       <c r="B913" s="1" t="str">
-        <f>MID(A913,33,LEN(A913) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C913" s="1">
@@ -30691,7 +30694,7 @@
         <v>27</v>
       </c>
       <c r="B914" s="1" t="str">
-        <f>MID(A914,33,LEN(A914) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C914" s="1">
@@ -30709,7 +30712,7 @@
         <v>27</v>
       </c>
       <c r="B915" s="1" t="str">
-        <f>MID(A915,33,LEN(A915) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C915" s="1">
@@ -30727,7 +30730,7 @@
         <v>27</v>
       </c>
       <c r="B916" s="1" t="str">
-        <f>MID(A916,33,LEN(A916) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C916" s="1">
@@ -30745,7 +30748,7 @@
         <v>27</v>
       </c>
       <c r="B917" s="1" t="str">
-        <f>MID(A917,33,LEN(A917) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C917" s="1">
@@ -30763,7 +30766,7 @@
         <v>27</v>
       </c>
       <c r="B918" s="1" t="str">
-        <f>MID(A918,33,LEN(A918) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C918" s="1">
@@ -30781,7 +30784,7 @@
         <v>27</v>
       </c>
       <c r="B919" s="1" t="str">
-        <f>MID(A919,33,LEN(A919) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C919" s="1">
@@ -30799,7 +30802,7 @@
         <v>27</v>
       </c>
       <c r="B920" s="1" t="str">
-        <f>MID(A920,33,LEN(A920) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C920" s="1">
@@ -30817,7 +30820,7 @@
         <v>27</v>
       </c>
       <c r="B921" s="1" t="str">
-        <f>MID(A921,33,LEN(A921) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C921" s="1">
@@ -30835,7 +30838,7 @@
         <v>27</v>
       </c>
       <c r="B922" s="1" t="str">
-        <f>MID(A922,33,LEN(A922) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C922" s="1">
@@ -30853,7 +30856,7 @@
         <v>27</v>
       </c>
       <c r="B923" s="1" t="str">
-        <f>MID(A923,33,LEN(A923) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C923" s="1">
@@ -30871,7 +30874,7 @@
         <v>27</v>
       </c>
       <c r="B924" s="1" t="str">
-        <f>MID(A924,33,LEN(A924) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C924" s="1">
@@ -30889,7 +30892,7 @@
         <v>27</v>
       </c>
       <c r="B925" s="1" t="str">
-        <f>MID(A925,33,LEN(A925) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C925" s="1">
@@ -30907,7 +30910,7 @@
         <v>27</v>
       </c>
       <c r="B926" s="1" t="str">
-        <f>MID(A926,33,LEN(A926) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C926" s="1">
@@ -30925,7 +30928,7 @@
         <v>27</v>
       </c>
       <c r="B927" s="1" t="str">
-        <f>MID(A927,33,LEN(A927) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C927" s="1">
@@ -30943,7 +30946,7 @@
         <v>27</v>
       </c>
       <c r="B928" s="1" t="str">
-        <f>MID(A928,33,LEN(A928) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C928" s="1">
@@ -30961,7 +30964,7 @@
         <v>27</v>
       </c>
       <c r="B929" s="1" t="str">
-        <f>MID(A929,33,LEN(A929) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C929" s="1">
@@ -30979,7 +30982,7 @@
         <v>27</v>
       </c>
       <c r="B930" s="1" t="str">
-        <f>MID(A930,33,LEN(A930) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C930" s="1">
@@ -30997,7 +31000,7 @@
         <v>27</v>
       </c>
       <c r="B931" s="1" t="str">
-        <f>MID(A931,33,LEN(A931) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C931" s="1">
@@ -31015,7 +31018,7 @@
         <v>27</v>
       </c>
       <c r="B932" s="1" t="str">
-        <f>MID(A932,33,LEN(A932) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C932" s="1">
@@ -31033,7 +31036,7 @@
         <v>27</v>
       </c>
       <c r="B933" s="1" t="str">
-        <f>MID(A933,33,LEN(A933) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C933" s="1">
@@ -31051,7 +31054,7 @@
         <v>27</v>
       </c>
       <c r="B934" s="1" t="str">
-        <f>MID(A934,33,LEN(A934) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C934" s="1">
@@ -31069,7 +31072,7 @@
         <v>27</v>
       </c>
       <c r="B935" s="1" t="str">
-        <f>MID(A935,33,LEN(A935) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C935" s="1">
@@ -31087,7 +31090,7 @@
         <v>27</v>
       </c>
       <c r="B936" s="1" t="str">
-        <f>MID(A936,33,LEN(A936) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C936" s="1">
@@ -31105,7 +31108,7 @@
         <v>27</v>
       </c>
       <c r="B937" s="1" t="str">
-        <f>MID(A937,33,LEN(A937) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C937" s="1">
@@ -31123,7 +31126,7 @@
         <v>27</v>
       </c>
       <c r="B938" s="1" t="str">
-        <f>MID(A938,33,LEN(A938) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C938" s="1">
@@ -31141,7 +31144,7 @@
         <v>27</v>
       </c>
       <c r="B939" s="1" t="str">
-        <f>MID(A939,33,LEN(A939) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C939" s="1">
@@ -31159,7 +31162,7 @@
         <v>27</v>
       </c>
       <c r="B940" s="1" t="str">
-        <f>MID(A940,33,LEN(A940) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C940" s="1">
@@ -31177,7 +31180,7 @@
         <v>27</v>
       </c>
       <c r="B941" s="1" t="str">
-        <f>MID(A941,33,LEN(A941) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C941" s="1">
@@ -31195,7 +31198,7 @@
         <v>27</v>
       </c>
       <c r="B942" s="1" t="str">
-        <f>MID(A942,33,LEN(A942) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C942" s="1">
@@ -31213,7 +31216,7 @@
         <v>27</v>
       </c>
       <c r="B943" s="1" t="str">
-        <f>MID(A943,33,LEN(A943) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C943">
@@ -31231,7 +31234,7 @@
         <v>27</v>
       </c>
       <c r="B944" s="1" t="str">
-        <f>MID(A944,33,LEN(A944) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C944">
@@ -31249,7 +31252,7 @@
         <v>27</v>
       </c>
       <c r="B945" s="1" t="str">
-        <f>MID(A945,33,LEN(A945) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C945">
@@ -31267,7 +31270,7 @@
         <v>27</v>
       </c>
       <c r="B946" s="1" t="str">
-        <f>MID(A946,33,LEN(A946) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C946">
@@ -31285,7 +31288,7 @@
         <v>27</v>
       </c>
       <c r="B947" s="1" t="str">
-        <f>MID(A947,33,LEN(A947) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C947">
@@ -31303,7 +31306,7 @@
         <v>27</v>
       </c>
       <c r="B948" s="1" t="str">
-        <f>MID(A948,33,LEN(A948) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C948">
@@ -31321,7 +31324,7 @@
         <v>27</v>
       </c>
       <c r="B949" s="1" t="str">
-        <f>MID(A949,33,LEN(A949) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C949">
@@ -31339,7 +31342,7 @@
         <v>27</v>
       </c>
       <c r="B950" s="1" t="str">
-        <f>MID(A950,33,LEN(A950) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C950">
@@ -31357,7 +31360,7 @@
         <v>27</v>
       </c>
       <c r="B951" s="1" t="str">
-        <f>MID(A951,33,LEN(A951) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C951">
@@ -31375,7 +31378,7 @@
         <v>27</v>
       </c>
       <c r="B952" s="1" t="str">
-        <f>MID(A952,33,LEN(A952) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C952">
@@ -31393,7 +31396,7 @@
         <v>27</v>
       </c>
       <c r="B953" s="1" t="str">
-        <f>MID(A953,33,LEN(A953) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C953">
@@ -31411,7 +31414,7 @@
         <v>27</v>
       </c>
       <c r="B954" s="1" t="str">
-        <f>MID(A954,33,LEN(A954) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C954">
@@ -31429,7 +31432,7 @@
         <v>27</v>
       </c>
       <c r="B955" s="1" t="str">
-        <f>MID(A955,33,LEN(A955) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C955">
@@ -31447,7 +31450,7 @@
         <v>27</v>
       </c>
       <c r="B956" s="1" t="str">
-        <f>MID(A956,33,LEN(A956) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C956">
@@ -31465,7 +31468,7 @@
         <v>27</v>
       </c>
       <c r="B957" s="1" t="str">
-        <f>MID(A957,33,LEN(A957) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C957">
@@ -31483,7 +31486,7 @@
         <v>27</v>
       </c>
       <c r="B958" s="1" t="str">
-        <f>MID(A958,33,LEN(A958) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C958">
@@ -31501,7 +31504,7 @@
         <v>27</v>
       </c>
       <c r="B959" s="1" t="str">
-        <f>MID(A959,33,LEN(A959) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C959">
@@ -31519,7 +31522,7 @@
         <v>27</v>
       </c>
       <c r="B960" s="1" t="str">
-        <f>MID(A960,33,LEN(A960) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C960">
@@ -31537,7 +31540,7 @@
         <v>27</v>
       </c>
       <c r="B961" s="1" t="str">
-        <f>MID(A961,33,LEN(A961) - 36)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C961">
@@ -31555,7 +31558,7 @@
         <v>27</v>
       </c>
       <c r="B962" s="1" t="str">
-        <f>MID(A962,33,LEN(A962) - 36)</f>
+        <f t="shared" ref="B962:B1025" si="26">MID(A962,33,LEN(A962) - 36)</f>
         <v>9</v>
       </c>
       <c r="C962">
@@ -31573,7 +31576,7 @@
         <v>27</v>
       </c>
       <c r="B963" s="1" t="str">
-        <f>MID(A963,33,LEN(A963) - 36)</f>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="C963">
@@ -31591,7 +31594,7 @@
         <v>27</v>
       </c>
       <c r="B964" s="1" t="str">
-        <f>MID(A964,33,LEN(A964) - 36)</f>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="C964">
@@ -31609,7 +31612,7 @@
         <v>27</v>
       </c>
       <c r="B965" s="1" t="str">
-        <f>MID(A965,33,LEN(A965) - 36)</f>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="C965">
@@ -31627,7 +31630,7 @@
         <v>27</v>
       </c>
       <c r="B966" s="1" t="str">
-        <f>MID(A966,33,LEN(A966) - 36)</f>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="C966">
@@ -31645,7 +31648,7 @@
         <v>27</v>
       </c>
       <c r="B967" s="1" t="str">
-        <f>MID(A967,33,LEN(A967) - 36)</f>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="C967">
@@ -31663,7 +31666,7 @@
         <v>27</v>
       </c>
       <c r="B968" s="1" t="str">
-        <f>MID(A968,33,LEN(A968) - 36)</f>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="C968">
@@ -31681,7 +31684,7 @@
         <v>27</v>
       </c>
       <c r="B969" s="1" t="str">
-        <f>MID(A969,33,LEN(A969) - 36)</f>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="C969">
@@ -31699,7 +31702,7 @@
         <v>27</v>
       </c>
       <c r="B970" s="1" t="str">
-        <f>MID(A970,33,LEN(A970) - 36)</f>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="C970">
@@ -31717,7 +31720,7 @@
         <v>27</v>
       </c>
       <c r="B971" s="1" t="str">
-        <f>MID(A971,33,LEN(A971) - 36)</f>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="C971">
@@ -31735,7 +31738,7 @@
         <v>27</v>
       </c>
       <c r="B972" s="1" t="str">
-        <f>MID(A972,33,LEN(A972) - 36)</f>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="C972">
@@ -31753,7 +31756,7 @@
         <v>27</v>
       </c>
       <c r="B973" s="1" t="str">
-        <f>MID(A973,33,LEN(A973) - 36)</f>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="C973">
@@ -31771,7 +31774,7 @@
         <v>27</v>
       </c>
       <c r="B974" s="1" t="str">
-        <f>MID(A974,33,LEN(A974) - 36)</f>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="C974">
@@ -31789,7 +31792,7 @@
         <v>27</v>
       </c>
       <c r="B975" s="1" t="str">
-        <f>MID(A975,33,LEN(A975) - 36)</f>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="C975">
@@ -31807,7 +31810,7 @@
         <v>27</v>
       </c>
       <c r="B976" s="1" t="str">
-        <f>MID(A976,33,LEN(A976) - 36)</f>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="C976">
@@ -31825,7 +31828,7 @@
         <v>27</v>
       </c>
       <c r="B977" s="1" t="str">
-        <f>MID(A977,33,LEN(A977) - 36)</f>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="C977">
@@ -31843,7 +31846,7 @@
         <v>27</v>
       </c>
       <c r="B978" s="1" t="str">
-        <f>MID(A978,33,LEN(A978) - 36)</f>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="C978">
@@ -31861,7 +31864,7 @@
         <v>27</v>
       </c>
       <c r="B979" s="1" t="str">
-        <f>MID(A979,33,LEN(A979) - 36)</f>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="C979">
@@ -31879,7 +31882,7 @@
         <v>27</v>
       </c>
       <c r="B980" s="1" t="str">
-        <f>MID(A980,33,LEN(A980) - 36)</f>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="C980">
@@ -31897,7 +31900,7 @@
         <v>27</v>
       </c>
       <c r="B981" s="1" t="str">
-        <f>MID(A981,33,LEN(A981) - 36)</f>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="C981">
@@ -31915,7 +31918,7 @@
         <v>27</v>
       </c>
       <c r="B982" s="1" t="str">
-        <f>MID(A982,33,LEN(A982) - 36)</f>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="C982">
@@ -31933,7 +31936,7 @@
         <v>27</v>
       </c>
       <c r="B983" s="1" t="str">
-        <f>MID(A983,33,LEN(A983) - 36)</f>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="C983">
@@ -31951,7 +31954,7 @@
         <v>27</v>
       </c>
       <c r="B984" s="1" t="str">
-        <f>MID(A984,33,LEN(A984) - 36)</f>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="C984">
@@ -31969,7 +31972,7 @@
         <v>27</v>
       </c>
       <c r="B985" s="1" t="str">
-        <f>MID(A985,33,LEN(A985) - 36)</f>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="C985">
@@ -31987,7 +31990,7 @@
         <v>27</v>
       </c>
       <c r="B986" s="1" t="str">
-        <f>MID(A986,33,LEN(A986) - 36)</f>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="C986">
@@ -32005,7 +32008,7 @@
         <v>27</v>
       </c>
       <c r="B987" s="1" t="str">
-        <f>MID(A987,33,LEN(A987) - 36)</f>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="C987">
@@ -32023,7 +32026,7 @@
         <v>27</v>
       </c>
       <c r="B988" s="1" t="str">
-        <f>MID(A988,33,LEN(A988) - 36)</f>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="C988">
@@ -32041,7 +32044,7 @@
         <v>27</v>
       </c>
       <c r="B989" s="1" t="str">
-        <f>MID(A989,33,LEN(A989) - 36)</f>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="C989">
@@ -32059,7 +32062,7 @@
         <v>27</v>
       </c>
       <c r="B990" s="1" t="str">
-        <f>MID(A990,33,LEN(A990) - 36)</f>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="C990">
@@ -32077,7 +32080,7 @@
         <v>27</v>
       </c>
       <c r="B991" s="1" t="str">
-        <f>MID(A991,33,LEN(A991) - 36)</f>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="C991">
@@ -32095,7 +32098,7 @@
         <v>27</v>
       </c>
       <c r="B992" s="1" t="str">
-        <f>MID(A992,33,LEN(A992) - 36)</f>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="C992">
@@ -32113,7 +32116,7 @@
         <v>27</v>
       </c>
       <c r="B993" s="1" t="str">
-        <f>MID(A993,33,LEN(A993) - 36)</f>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="C993">
@@ -32131,7 +32134,7 @@
         <v>27</v>
       </c>
       <c r="B994" s="1" t="str">
-        <f>MID(A994,33,LEN(A994) - 36)</f>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="C994">
@@ -32149,7 +32152,7 @@
         <v>27</v>
       </c>
       <c r="B995" s="1" t="str">
-        <f>MID(A995,33,LEN(A995) - 36)</f>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="C995">
@@ -32167,7 +32170,7 @@
         <v>27</v>
       </c>
       <c r="B996" s="1" t="str">
-        <f>MID(A996,33,LEN(A996) - 36)</f>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="C996">
@@ -32185,7 +32188,7 @@
         <v>27</v>
       </c>
       <c r="B997" s="1" t="str">
-        <f>MID(A997,33,LEN(A997) - 36)</f>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="C997">
@@ -32203,7 +32206,7 @@
         <v>27</v>
       </c>
       <c r="B998" s="1" t="str">
-        <f>MID(A998,33,LEN(A998) - 36)</f>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="C998">
@@ -32221,7 +32224,7 @@
         <v>27</v>
       </c>
       <c r="B999" s="1" t="str">
-        <f>MID(A999,33,LEN(A999) - 36)</f>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="C999">
@@ -32239,7 +32242,7 @@
         <v>27</v>
       </c>
       <c r="B1000" s="1" t="str">
-        <f>MID(A1000,33,LEN(A1000) - 36)</f>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="C1000">
@@ -32257,7 +32260,7 @@
         <v>27</v>
       </c>
       <c r="B1001" s="1" t="str">
-        <f>MID(A1001,33,LEN(A1001) - 36)</f>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="C1001">
@@ -32284,8 +32287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M2501"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32868,7 +32871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -32886,7 +32889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -32904,7 +32907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -32922,7 +32925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -32939,8 +32942,11 @@
       <c r="E20" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>3558</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -32958,7 +32964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -32976,7 +32982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -32994,7 +33000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -33012,7 +33018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -33030,7 +33036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -33048,7 +33054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -33066,7 +33072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -33084,7 +33090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -33102,7 +33108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -33120,7 +33126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -33138,7 +33144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>12</v>
       </c>

--- a/results_prioritized_layout3_8agents.xlsx
+++ b/results_prioritized_layout3_8agents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woutersouge/Documents/LR Master/AE4422 - Agent Based/AE4422/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79F6B70-DEF8-2A42-8870-EF97CA659406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C91FA83-C67A-5547-A2B6-1C65B097828E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33700" yWindow="-1220" windowWidth="28040" windowHeight="17260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15260" yWindow="760" windowWidth="14980" windowHeight="17400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results_10runs" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10846" uniqueCount="3559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10845" uniqueCount="3558">
   <si>
     <t xml:space="preserve"> Prioritized</t>
   </si>
@@ -10713,9 +10713,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 6.880158185958862</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
 </sst>
 </file>
@@ -11565,7 +11562,7 @@
   <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:M12"/>
+      <selection activeCell="A2" sqref="A2:E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13711,8 +13708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:L24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E1001"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31558,7 +31555,7 @@
         <v>27</v>
       </c>
       <c r="B962" s="1" t="str">
-        <f t="shared" ref="B962:B1025" si="26">MID(A962,33,LEN(A962) - 36)</f>
+        <f t="shared" ref="B962:B1001" si="26">MID(A962,33,LEN(A962) - 36)</f>
         <v>9</v>
       </c>
       <c r="C962">
@@ -32288,7 +32285,7 @@
   <dimension ref="A1:M2501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="A2" sqref="A2:E2501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32871,7 +32868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -32889,7 +32886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -32907,7 +32904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -32925,7 +32922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -32942,11 +32939,8 @@
       <c r="E20" t="s">
         <v>0</v>
       </c>
-      <c r="H20" t="s">
-        <v>3558</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -32964,7 +32958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -32982,7 +32976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -33000,7 +32994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -33018,7 +33012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -33036,7 +33030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -33054,7 +33048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -33072,7 +33066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -33090,7 +33084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -33108,7 +33102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -33126,7 +33120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -33144,7 +33138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>12</v>
       </c>
